--- a/TDStore/TD store_Tháng 5.2023.xlsx
+++ b/TDStore/TD store_Tháng 5.2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BFF6D9-0076-4954-B796-1DE3BAF95890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AD4CEA-D6E1-439D-9BEB-69C2CB6BB4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp tồn kho cũ" sheetId="2" r:id="rId1"/>
@@ -18,20 +18,21 @@
     <sheet name="Nhập hàng" sheetId="7" r:id="rId3"/>
     <sheet name="Bán hàng" sheetId="3" r:id="rId4"/>
     <sheet name="TỔNG HỢP NHẬP XUẤT TỒN" sheetId="4" r:id="rId5"/>
-    <sheet name="Các khoản chi phí" sheetId="6" r:id="rId6"/>
-    <sheet name="Lãi-Lỗ" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId6"/>
+    <sheet name="Các khoản chi phí" sheetId="6" r:id="rId7"/>
+    <sheet name="Lãi-Lỗ" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Bán hàng'!$A$5:$R$114</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Nhập hàng'!$A$4:$Q$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Bán hàng'!$A$5:$R$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Nhập hàng'!$A$3:$Q$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tổng hợp tồn kho cũ'!$A$2:$Z$19</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="187">
   <si>
     <t>Tên mặt hàng</t>
   </si>
@@ -516,12 +517,6 @@
     <t>Sạc YOGA 2 cổng C</t>
   </si>
   <si>
-    <t>Nam cầm 1 cái</t>
-  </si>
-  <si>
-    <t>Đủ 7 củ thiếu 2 dây</t>
-  </si>
-  <si>
     <t>Sac_lenovo_C_REAL</t>
   </si>
   <si>
@@ -592,6 +587,30 @@
   </si>
   <si>
     <t>Phi ship Viettel</t>
+  </si>
+  <si>
+    <t>BALO_THINKPAD</t>
+  </si>
+  <si>
+    <t>Balo thinkpad</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>23/08/2023</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Loa TS32 dài</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hub 6in1 </t>
+  </si>
+  <si>
+    <t>USB 2IN1 64GB</t>
   </si>
 </sst>
 </file>
@@ -935,7 +954,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1119,6 +1138,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1182,6 +1228,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1510,10 +1557,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="120" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1569,8 +1616,8 @@
       </c>
     </row>
     <row r="2" spans="1:26" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="112"/>
-      <c r="B2" s="110"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="121"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
@@ -7435,11 +7482,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:J34"/>
+  <dimension ref="B3:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7455,12 +7502,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
     </row>
     <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="60" t="s">
@@ -7806,7 +7853,7 @@
         <v>136</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="39"/>
@@ -7905,10 +7952,10 @@
         <v>24</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="39"/>
@@ -7918,12 +7965,14 @@
       <c r="J30" s="39"/>
     </row>
     <row r="31" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="40"/>
+      <c r="B31" s="40">
+        <v>25</v>
+      </c>
       <c r="C31" s="33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="39"/>
@@ -7933,12 +7982,14 @@
       <c r="J31" s="39"/>
     </row>
     <row r="32" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="40"/>
+      <c r="B32" s="40">
+        <v>26</v>
+      </c>
       <c r="C32" s="33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="39"/>
@@ -7949,7 +8000,7 @@
     </row>
     <row r="33" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="40">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>151</v>
@@ -7966,13 +8017,13 @@
     </row>
     <row r="34" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="40">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="39"/>
@@ -7980,6 +8031,23 @@
       <c r="H34" s="39"/>
       <c r="I34" s="39"/>
       <c r="J34" s="39"/>
+    </row>
+    <row r="35" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="40">
+        <v>29</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="33"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8003,11 +8071,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8029,32 +8097,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="126"/>
       <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="44"/>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
     </row>
     <row r="3" spans="1:16" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="115"/>
-      <c r="B3" s="115"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="126"/>
       <c r="C3" s="44"/>
       <c r="D3" s="39" t="s">
         <v>65</v>
@@ -8085,8 +8153,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
+      <c r="A4" s="126"/>
+      <c r="B4" s="126"/>
       <c r="D4" s="60" t="s">
         <v>78</v>
       </c>
@@ -8119,8 +8187,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
-      <c r="B5" s="115"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="44"/>
       <c r="D5" s="54">
         <v>45051</v>
@@ -8130,7 +8198,7 @@
         <v>41</v>
       </c>
       <c r="G5" s="40" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F5,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(F5,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="H5" s="33">
@@ -8154,32 +8222,37 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115"/>
-      <c r="B6" s="115"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="44"/>
-      <c r="D6" s="54">
-        <v>3</v>
-      </c>
+      <c r="D6" s="54"/>
       <c r="E6" s="87"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F6,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="41" t="e">
-        <f t="shared" ref="I6:I22" si="0">J6/H6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="41"/>
+      <c r="F6" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="40" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(F6,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>USB C 3in1</v>
+      </c>
+      <c r="H6" s="33">
+        <v>20</v>
+      </c>
+      <c r="I6" s="41">
+        <f t="shared" ref="I6:I27" si="0">J6/H6</f>
+        <v>93000</v>
+      </c>
+      <c r="J6" s="41">
+        <f>93000*20</f>
+        <v>1860000</v>
+      </c>
       <c r="K6" s="74"/>
       <c r="L6" s="68">
-        <f t="shared" ref="L6:L21" si="1">+J6+K6</f>
-        <v>0</v>
+        <f t="shared" ref="L6:L22" si="1">+J6+K6</f>
+        <v>1860000</v>
       </c>
       <c r="M6" s="68">
-        <f t="shared" ref="M6:M22" si="2">+IFERROR((J6+K6)/H6,0)</f>
-        <v>0</v>
+        <f t="shared" ref="M6:M27" si="2">+IFERROR((J6+K6)/H6,0)</f>
+        <v>93000</v>
       </c>
       <c r="O6" s="39" t="s">
         <v>90</v>
@@ -8189,85 +8262,79 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="54">
-        <v>45089</v>
-      </c>
+      <c r="A7" s="109"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="87"/>
       <c r="F7" s="33" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="G7" s="40" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F7,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
-        <v>Chuột M24</v>
+        <f>_xlfn.IFNA(VLOOKUP(F7,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>USB C 6in1</v>
       </c>
       <c r="H7" s="33">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I7" s="41">
         <f t="shared" si="0"/>
-        <v>106666.66666666667</v>
+        <v>213000</v>
       </c>
       <c r="J7" s="41">
-        <v>320000</v>
+        <f>213000*10</f>
+        <v>2130000</v>
       </c>
       <c r="K7" s="74"/>
       <c r="L7" s="68">
         <f t="shared" si="1"/>
-        <v>320000</v>
+        <v>2130000</v>
       </c>
       <c r="M7" s="68">
         <f t="shared" si="2"/>
-        <v>106666.66666666667</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="P7" s="51" t="s">
-        <v>95</v>
-      </c>
+        <v>213000</v>
+      </c>
+      <c r="P7" s="51"/>
     </row>
     <row r="8" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
       <c r="D8" s="54">
-        <v>45101</v>
+        <v>45089</v>
       </c>
       <c r="E8" s="87"/>
       <c r="F8" s="33" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G8" s="40" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F8,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
-        <v>Sạc Thinkplus gen 2 đen new</v>
+        <f>_xlfn.IFNA(VLOOKUP(F8,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Chuột M24</v>
       </c>
       <c r="H8" s="33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8" s="41">
         <f t="shared" si="0"/>
-        <v>421240</v>
+        <v>106666.66666666667</v>
       </c>
       <c r="J8" s="41">
-        <v>2106200</v>
+        <v>320000</v>
       </c>
       <c r="K8" s="74"/>
       <c r="L8" s="68">
         <f t="shared" si="1"/>
-        <v>2106200</v>
+        <v>320000</v>
       </c>
       <c r="M8" s="68">
         <f t="shared" si="2"/>
-        <v>421240</v>
+        <v>106666.66666666667</v>
       </c>
       <c r="O8" s="39" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P8" s="51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8279,112 +8346,115 @@
       </c>
       <c r="E9" s="87"/>
       <c r="F9" s="33" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G9" s="40" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F9,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
-        <v>Túi chống sốc màu đen Xiaoxin 14</v>
+        <f>_xlfn.IFNA(VLOOKUP(F9,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Sạc Thinkplus gen 2 đen new</v>
       </c>
       <c r="H9" s="33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I9" s="41">
         <f t="shared" si="0"/>
-        <v>101100</v>
+        <v>421240</v>
       </c>
       <c r="J9" s="41">
-        <v>2022000</v>
+        <v>2106200</v>
       </c>
       <c r="K9" s="74"/>
       <c r="L9" s="68">
         <f t="shared" si="1"/>
-        <v>2022000</v>
+        <v>2106200</v>
       </c>
       <c r="M9" s="68">
         <f t="shared" si="2"/>
-        <v>101100</v>
+        <v>421240</v>
       </c>
       <c r="O9" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P9" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="54">
         <v>45101</v>
       </c>
       <c r="E10" s="87"/>
-      <c r="F10" s="99" t="s">
-        <v>160</v>
+      <c r="F10" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="G10" s="40" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F10,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
-        <v>Túi chống sốc màu đen Xiaoxin 15.6</v>
+        <f>_xlfn.IFNA(VLOOKUP(F10,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Túi chống sốc màu đen Xiaoxin 14</v>
       </c>
       <c r="H10" s="33">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I10" s="41">
         <f t="shared" si="0"/>
         <v>101100</v>
       </c>
       <c r="J10" s="41">
-        <v>1011000</v>
+        <v>2022000</v>
       </c>
       <c r="K10" s="74"/>
       <c r="L10" s="68">
         <f t="shared" si="1"/>
-        <v>1011000</v>
+        <v>2022000</v>
       </c>
       <c r="M10" s="68">
         <f t="shared" si="2"/>
         <v>101100</v>
       </c>
       <c r="O10" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P10" s="51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="54">
-        <v>45140</v>
+        <v>45101</v>
       </c>
       <c r="E11" s="87"/>
-      <c r="F11" s="33" t="s">
-        <v>38</v>
+      <c r="F11" s="99" t="s">
+        <v>158</v>
       </c>
       <c r="G11" s="40" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F11,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
-        <v>USB</v>
+        <f>_xlfn.IFNA(VLOOKUP(F11,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Túi chống sốc màu đen Xiaoxin 15.6</v>
       </c>
       <c r="H11" s="33">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I11" s="41">
         <f t="shared" si="0"/>
         <v>101100</v>
       </c>
       <c r="J11" s="41">
-        <v>2022000</v>
+        <v>1011000</v>
       </c>
       <c r="K11" s="74"/>
       <c r="L11" s="68">
         <f t="shared" si="1"/>
-        <v>2022000</v>
+        <v>1011000</v>
       </c>
       <c r="M11" s="68">
         <f t="shared" si="2"/>
         <v>101100</v>
       </c>
       <c r="O11" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="P11" s="47" t="s">
-        <v>125</v>
+        <v>93</v>
+      </c>
+      <c r="P11" s="51" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8393,68 +8463,68 @@
       </c>
       <c r="E12" s="87"/>
       <c r="F12" s="33" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="G12" s="40" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F12,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
-        <v>Sạc YOGA 2 cổng C</v>
+        <f>_xlfn.IFNA(VLOOKUP(F12,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>USB</v>
       </c>
       <c r="H12" s="33">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I12" s="41">
         <f t="shared" si="0"/>
-        <v>259400</v>
+        <v>101100</v>
       </c>
       <c r="J12" s="41">
-        <v>1297000</v>
+        <v>2022000</v>
       </c>
       <c r="K12" s="74"/>
       <c r="L12" s="68">
         <f t="shared" si="1"/>
-        <v>1297000</v>
+        <v>2022000</v>
       </c>
       <c r="M12" s="68">
         <f t="shared" si="2"/>
-        <v>259400</v>
+        <v>101100</v>
+      </c>
+      <c r="O12" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="P12" s="47" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="54">
-        <v>45152</v>
+        <v>45140</v>
       </c>
       <c r="E13" s="87"/>
       <c r="F13" s="33" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G13" s="40" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F13,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
-        <v>Chuột lenovo bluetooth M1</v>
+        <f>_xlfn.IFNA(VLOOKUP(F13,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Sạc YOGA 2 cổng C</v>
       </c>
       <c r="H13" s="33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I13" s="41">
         <f t="shared" si="0"/>
-        <v>107840</v>
+        <v>259400</v>
       </c>
       <c r="J13" s="41">
-        <v>1078400</v>
+        <v>1297000</v>
       </c>
       <c r="K13" s="74"/>
       <c r="L13" s="68">
         <f t="shared" si="1"/>
-        <v>1078400</v>
+        <v>1297000</v>
       </c>
       <c r="M13" s="68">
         <f t="shared" si="2"/>
-        <v>107840</v>
-      </c>
-      <c r="O13" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="P13" s="75" t="s">
-        <v>111</v>
+        <v>259400</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8463,36 +8533,36 @@
       </c>
       <c r="E14" s="87"/>
       <c r="F14" s="33" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G14" s="40" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F14,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
-        <v>Sạc YOGA 2 cổng C</v>
+        <f>_xlfn.IFNA(VLOOKUP(F14,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="H14" s="33">
         <v>10</v>
       </c>
       <c r="I14" s="41">
         <f t="shared" si="0"/>
-        <v>264545</v>
+        <v>107840</v>
       </c>
       <c r="J14" s="41">
-        <v>2645450</v>
+        <v>1078400</v>
       </c>
       <c r="K14" s="74"/>
       <c r="L14" s="68">
         <f t="shared" si="1"/>
-        <v>2645450</v>
+        <v>1078400</v>
       </c>
       <c r="M14" s="68">
         <f t="shared" si="2"/>
-        <v>264545</v>
-      </c>
-      <c r="O14" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="P14" s="41">
-        <v>141983</v>
+        <v>107840</v>
+      </c>
+      <c r="O14" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14" s="75" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8501,36 +8571,36 @@
       </c>
       <c r="E15" s="87"/>
       <c r="F15" s="33" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="G15" s="40" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F15,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
-        <v>Chuột M24</v>
+        <f>_xlfn.IFNA(VLOOKUP(F15,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Sạc YOGA 2 cổng C</v>
       </c>
       <c r="H15" s="33">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="I15" s="41">
         <f t="shared" si="0"/>
-        <v>87616.666666666672</v>
+        <v>264545</v>
       </c>
       <c r="J15" s="41">
-        <v>5257000</v>
+        <v>2645450</v>
       </c>
       <c r="K15" s="74"/>
       <c r="L15" s="68">
         <f t="shared" si="1"/>
-        <v>5257000</v>
+        <v>2645450</v>
       </c>
       <c r="M15" s="68">
         <f t="shared" si="2"/>
-        <v>87616.666666666672</v>
+        <v>264545</v>
       </c>
       <c r="O15" s="33" t="s">
         <v>150</v>
       </c>
       <c r="P15" s="41">
-        <v>456000</v>
+        <v>141983</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8539,67 +8609,71 @@
       </c>
       <c r="E16" s="87"/>
       <c r="F16" s="33" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="G16" s="40" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F16,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
-        <v>Chuột thinkpad</v>
+        <f>_xlfn.IFNA(VLOOKUP(F16,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Chuột M24</v>
       </c>
       <c r="H16" s="33">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I16" s="41">
         <f t="shared" si="0"/>
-        <v>208800</v>
+        <v>87616.666666666672</v>
       </c>
       <c r="J16" s="41">
-        <v>1044000</v>
-      </c>
-      <c r="K16" s="41"/>
+        <v>5257000</v>
+      </c>
+      <c r="K16" s="74"/>
       <c r="L16" s="68">
         <f t="shared" si="1"/>
-        <v>1044000</v>
+        <v>5257000</v>
       </c>
       <c r="M16" s="68">
         <f t="shared" si="2"/>
-        <v>208800</v>
-      </c>
-      <c r="O16" s="33"/>
-      <c r="P16" s="41"/>
+        <v>87616.666666666672</v>
+      </c>
+      <c r="O16" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="P16" s="41">
+        <v>456000</v>
+      </c>
     </row>
     <row r="17" spans="4:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="54">
-        <v>45159</v>
+        <v>45152</v>
       </c>
       <c r="E17" s="87"/>
       <c r="F17" s="33" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="G17" s="40" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F17,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
-        <v>Chuột lenovo bluetooth M1</v>
+        <f>_xlfn.IFNA(VLOOKUP(F17,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Chuột thinkpad</v>
       </c>
       <c r="H17" s="33">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="I17" s="41">
         <f t="shared" si="0"/>
-        <v>107833.33333333333</v>
+        <v>208800</v>
       </c>
       <c r="J17" s="41">
-        <v>6470000</v>
+        <v>1044000</v>
       </c>
       <c r="K17" s="41"/>
       <c r="L17" s="68">
         <f t="shared" si="1"/>
-        <v>6470000</v>
+        <v>1044000</v>
       </c>
       <c r="M17" s="68">
         <f t="shared" si="2"/>
-        <v>107833.33333333333</v>
+        <v>208800</v>
       </c>
       <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
+      <c r="P17" s="41"/>
     </row>
     <row r="18" spans="4:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="54">
@@ -8607,26 +8681,26 @@
       </c>
       <c r="E18" s="87"/>
       <c r="F18" s="33" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="G18" s="40" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F18,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
-        <v>Túi chống sốc màu đen Xiaoxin 14</v>
+        <f>_xlfn.IFNA(VLOOKUP(F18,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="H18" s="33">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I18" s="41">
         <f t="shared" si="0"/>
         <v>107833.33333333333</v>
       </c>
       <c r="J18" s="41">
-        <v>3235000</v>
+        <v>6470000</v>
       </c>
       <c r="K18" s="41"/>
       <c r="L18" s="68">
         <f t="shared" si="1"/>
-        <v>3235000</v>
+        <v>6470000</v>
       </c>
       <c r="M18" s="68">
         <f t="shared" si="2"/>
@@ -8641,166 +8715,286 @@
       </c>
       <c r="E19" s="87"/>
       <c r="F19" s="33" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="G19" s="40" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(F19,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
-        <v>Túi chống sốc màu đen Xiaoxin 15.6</v>
+        <f>_xlfn.IFNA(VLOOKUP(F19,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Túi chống sốc màu đen Xiaoxin 14</v>
       </c>
       <c r="H19" s="33">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I19" s="41">
         <f t="shared" si="0"/>
-        <v>111210</v>
+        <v>107833.33333333333</v>
       </c>
       <c r="J19" s="41">
-        <v>1779360</v>
+        <v>3235000</v>
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="68">
         <f t="shared" si="1"/>
-        <v>1779360</v>
+        <v>3235000</v>
       </c>
       <c r="M19" s="68">
         <f t="shared" si="2"/>
+        <v>107833.33333333333</v>
+      </c>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+    </row>
+    <row r="20" spans="4:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="54">
+        <v>45159</v>
+      </c>
+      <c r="E20" s="87"/>
+      <c r="F20" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="40" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(F20,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Túi chống sốc màu đen Xiaoxin 15.6</v>
+      </c>
+      <c r="H20" s="33">
+        <v>16</v>
+      </c>
+      <c r="I20" s="41">
+        <f t="shared" si="0"/>
         <v>111210</v>
       </c>
-    </row>
-    <row r="20" spans="4:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="54"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F20,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="41" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="41"/>
+      <c r="J20" s="41">
+        <v>1779360</v>
+      </c>
       <c r="K20" s="41"/>
       <c r="L20" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1779360</v>
       </c>
       <c r="M20" s="68">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="55"/>
-      <c r="P20" s="89">
-        <v>5616797</v>
+        <v>111210</v>
       </c>
     </row>
     <row r="21" spans="4:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="54"/>
+      <c r="D21" s="54">
+        <v>45201</v>
+      </c>
       <c r="E21" s="87"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F21,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="41" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="41"/>
+      <c r="F21" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="40" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(F21,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Túi chống sốc màu đen Xiaoxin 14</v>
+      </c>
+      <c r="H21" s="33">
+        <v>45</v>
+      </c>
+      <c r="I21" s="41">
+        <f>J21/H21</f>
+        <v>127840</v>
+      </c>
+      <c r="J21" s="41">
+        <v>5752800</v>
+      </c>
       <c r="K21" s="41"/>
       <c r="L21" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5752800</v>
       </c>
       <c r="M21" s="68">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>127840</v>
+      </c>
+      <c r="O21" s="55"/>
       <c r="P21" s="89">
+        <v>5616797</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="54">
+        <v>45201</v>
+      </c>
+      <c r="E22" s="87"/>
+      <c r="F22" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="40" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(F22,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Balo thinkpad</v>
+      </c>
+      <c r="H22" s="33">
+        <v>10</v>
+      </c>
+      <c r="I22" s="41">
+        <f t="shared" si="0"/>
+        <v>161640</v>
+      </c>
+      <c r="J22" s="41">
+        <v>1616400</v>
+      </c>
+      <c r="K22" s="41"/>
+      <c r="L22" s="68">
+        <f t="shared" si="1"/>
+        <v>1616400</v>
+      </c>
+      <c r="M22" s="68">
+        <f t="shared" si="2"/>
+        <v>161640</v>
+      </c>
+      <c r="P22" s="89">
         <v>263314</v>
       </c>
-      <c r="Q21" s="39">
+      <c r="Q22" s="39">
         <f>20*3635</f>
         <v>72700</v>
       </c>
     </row>
-    <row r="22" spans="4:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="40"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="40">
-        <f>_xlfn.IFNA(VLOOKUP(F22,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+    <row r="23" spans="4:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="87"/>
+      <c r="F23" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="40" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(F23,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>USB 2 đầu 64GB</v>
+      </c>
+      <c r="H23" s="33">
+        <v>20</v>
+      </c>
+      <c r="I23" s="41">
+        <f t="shared" si="0"/>
+        <v>111000</v>
+      </c>
+      <c r="J23" s="41">
+        <f>111000*20</f>
+        <v>2220000</v>
+      </c>
+      <c r="K23" s="41"/>
+      <c r="L23" s="68">
+        <f t="shared" ref="L23" si="3">+J23+K23</f>
+        <v>2220000</v>
+      </c>
+      <c r="M23" s="68">
+        <f t="shared" ref="M23" si="4">+IFERROR((J23+K23)/H23,0)</f>
+        <v>111000</v>
+      </c>
+      <c r="P23" s="89"/>
+    </row>
+    <row r="24" spans="4:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="54"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="P24" s="89"/>
+    </row>
+    <row r="25" spans="4:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="54"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="P25" s="89"/>
+    </row>
+    <row r="26" spans="4:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="54"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="P26" s="89"/>
+    </row>
+    <row r="27" spans="4:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="40"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="40">
+        <f>_xlfn.IFNA(VLOOKUP(F27,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="41" t="e">
+      <c r="H27" s="33"/>
+      <c r="I27" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="68">
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P22" s="89">
+      <c r="P27" s="89">
         <v>144528</v>
       </c>
     </row>
-    <row r="23" spans="4:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="42" t="s">
+    <row r="28" spans="4:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="88"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33">
-        <f>SUM(H5:H22)</f>
-        <v>304</v>
-      </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="P23" s="90">
-        <f>P20-P21-P22</f>
+      <c r="E28" s="88"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33">
+        <f>SUM(H5:H27)</f>
+        <v>409</v>
+      </c>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="P28" s="90">
+        <f>P21-P22-P27</f>
         <v>5208955</v>
       </c>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="K25" s="100"/>
-    </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="K26" s="90"/>
+    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="K30" s="100"/>
+    </row>
+    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="K31" s="90"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:Q4" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="0" showButton="0"/>
-  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="A1:B6"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="F10:F11">
+  <conditionalFormatting sqref="F11:F12">
     <cfRule type="duplicateValues" dxfId="5" priority="3"/>
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
+  <conditionalFormatting sqref="F13">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="P6" location="'Nhập hàng'!A1" display="'Nhập hàng'!A1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="P7" location="'Bán hàng'!A1" display="'Bán hàng'!A1" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="P8" location="'Các khoản chi phí'!A1" display="'Các khoản chi phí'!A1" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="P9" location="'TỔNG HỢP NHẬP XUẤT TỒN'!A1" display="'TỔNG HỢP NHẬP XUẤT TỒN'!A1" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="P10" location="'Lãi-Lỗ'!A1" display="'Lãi-Lỗ'!A1" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="P11" location="'Danh mục hàng hóa'!A1" display="'Danh mục hàng hóa'!A1" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="P8" location="'Bán hàng'!A1" display="'Bán hàng'!A1" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="P9" location="'Các khoản chi phí'!A1" display="'Các khoản chi phí'!A1" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="P10" location="'TỔNG HỢP NHẬP XUẤT TỒN'!A1" display="'TỔNG HỢP NHẬP XUẤT TỒN'!A1" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="P11" location="'Lãi-Lỗ'!A1" display="'Lãi-Lỗ'!A1" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="P12" location="'Danh mục hàng hóa'!A1" display="'Danh mục hàng hóa'!A1" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="259" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8809,13 +9003,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
-            <xm:f>'Danh mục hàng hóa'!$C$7:$C$34</xm:f>
+            <xm:f>'Danh mục hàng hóa'!$C$7:$C$35</xm:f>
           </x14:formula1>
-          <xm:sqref>F6:F22</xm:sqref>
+          <xm:sqref>F6:F27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
-            <xm:f>'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$A$37</xm:f>
+            <xm:f>'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$A$38</xm:f>
           </x14:formula1>
           <xm:sqref>F5</xm:sqref>
         </x14:dataValidation>
@@ -8827,11 +9021,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:R114"/>
+  <dimension ref="A2:R141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I114" sqref="I114"/>
+      <pane ySplit="5" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B133" sqref="B133:B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8857,21 +9051,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
+      <c r="A2" s="127" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
     </row>
     <row r="3" spans="1:18" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -8909,69 +9103,69 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="119" t="s">
+      <c r="E4" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="119" t="s">
+      <c r="F4" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="119" t="s">
+      <c r="H4" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="119" t="s">
+      <c r="I4" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="119" t="s">
+      <c r="J4" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="119" t="s">
+      <c r="K4" s="130" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
     </row>
     <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="106">
         <v>45049</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B6,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B6,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
       </c>
       <c r="E6" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B6,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B6,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F6" s="69">
@@ -8979,7 +9173,7 @@
         <v>121731.64389041116</v>
       </c>
       <c r="G6" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B6,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B6,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H6" s="38">
@@ -8991,7 +9185,7 @@
       </c>
       <c r="J6" s="28"/>
       <c r="K6" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8999,17 +9193,17 @@
         <v>45021</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C7" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B7,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B7,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D7" s="7">
         <v>5</v>
       </c>
       <c r="E7" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B7,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B7,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F7" s="69">
@@ -9017,7 +9211,7 @@
         <v>608658.21945205575</v>
       </c>
       <c r="G7" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B7,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B7,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H7" s="38">
@@ -9035,17 +9229,17 @@
         <v>45021</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C8" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B8,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B8,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột M24</v>
       </c>
       <c r="D8" s="7">
         <v>5</v>
       </c>
       <c r="E8" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B8,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B8,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>93140.363408874851</v>
       </c>
       <c r="F8" s="69">
@@ -9053,7 +9247,7 @@
         <v>465701.81704437424</v>
       </c>
       <c r="G8" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B8,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B8,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>139710.54511331228</v>
       </c>
       <c r="H8" s="38">
@@ -9074,23 +9268,23 @@
         <v>44</v>
       </c>
       <c r="C9" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B9,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B9,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>USB C 3in1</v>
       </c>
       <c r="D9" s="7">
         <v>3</v>
       </c>
       <c r="E9" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B9,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>92692.5</v>
+        <f>_xlfn.IFNA(VLOOKUP(B9,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>92929.038461538468</v>
       </c>
       <c r="F9" s="69">
         <f t="shared" si="0"/>
-        <v>278077.5</v>
+        <v>278787.11538461538</v>
       </c>
       <c r="G9" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B9,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>139038.75</v>
+        <f>_xlfn.IFNA(VLOOKUP(B9,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>139393.55769230769</v>
       </c>
       <c r="H9" s="38">
         <v>130000</v>
@@ -9128,23 +9322,23 @@
         <v>148</v>
       </c>
       <c r="C10" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B10,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B10,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>USB C 6in1</v>
       </c>
       <c r="D10" s="7">
         <v>3</v>
       </c>
       <c r="E10" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B10,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>212845.66666666666</v>
+        <f>_xlfn.IFNA(VLOOKUP(B10,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>212974.27777777778</v>
       </c>
       <c r="F10" s="69">
         <f t="shared" si="0"/>
-        <v>638537</v>
+        <v>638922.83333333337</v>
       </c>
       <c r="G10" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B10,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>319268.5</v>
+        <f>_xlfn.IFNA(VLOOKUP(B10,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>319461.41666666669</v>
       </c>
       <c r="H10" s="38">
         <v>280000</v>
@@ -9187,14 +9381,14 @@
         <v>38</v>
       </c>
       <c r="C11" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B11,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B11,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>USB</v>
       </c>
       <c r="D11" s="7">
         <v>3</v>
       </c>
       <c r="E11" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B11,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B11,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>102168.40909090909</v>
       </c>
       <c r="F11" s="69">
@@ -9202,7 +9396,7 @@
         <v>306505.22727272729</v>
       </c>
       <c r="G11" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B11,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B11,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>153252.61363636365</v>
       </c>
       <c r="H11" s="38">
@@ -9243,17 +9437,17 @@
         <v>45051</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C12" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B12,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B12,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
       </c>
       <c r="E12" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B12,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B12,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F12" s="69">
@@ -9261,7 +9455,7 @@
         <v>121731.64389041116</v>
       </c>
       <c r="G12" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B12,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B12,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H12" s="38">
@@ -9302,17 +9496,17 @@
         <v>45051</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C13" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B13,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B13,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột M24</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
       </c>
       <c r="E13" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B13,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B13,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>93140.363408874851</v>
       </c>
       <c r="F13" s="69">
@@ -9320,7 +9514,7 @@
         <v>93140.363408874851</v>
       </c>
       <c r="G13" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B13,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B13,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>139710.54511331228</v>
       </c>
       <c r="H13" s="38">
@@ -9333,7 +9527,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="7"/>
       <c r="M13" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N13" s="70">
         <f>SUMIF($J$6:$J$69,M13,$I$6:$I$69)</f>
@@ -9361,14 +9555,14 @@
         <v>38</v>
       </c>
       <c r="C14" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B14,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B14,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>USB</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
       </c>
       <c r="E14" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B14,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B14,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>102168.40909090909</v>
       </c>
       <c r="F14" s="69">
@@ -9376,7 +9570,7 @@
         <v>102168.40909090909</v>
       </c>
       <c r="G14" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B14,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B14,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>153252.61363636365</v>
       </c>
       <c r="H14" s="38">
@@ -9420,23 +9614,23 @@
         <v>136</v>
       </c>
       <c r="C15" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B15,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B15,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 14</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
       </c>
       <c r="E15" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B15,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>107353.16931892058</v>
+        <f>_xlfn.IFNA(VLOOKUP(B15,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>116217.6633636184</v>
       </c>
       <c r="F15" s="69">
         <f t="shared" si="0"/>
-        <v>107353.16931892058</v>
+        <v>116217.6633636184</v>
       </c>
       <c r="G15" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B15,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>161029.75397838088</v>
+        <f>_xlfn.IFNA(VLOOKUP(B15,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>174326.49504542758</v>
       </c>
       <c r="H15" s="38">
         <v>250000</v>
@@ -9458,14 +9652,14 @@
         <v>146</v>
       </c>
       <c r="C16" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B16,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B16,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Sạc gan 1 đen new</v>
       </c>
       <c r="D16" s="7">
         <v>1</v>
       </c>
       <c r="E16" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B16,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B16,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>454886.2</v>
       </c>
       <c r="F16" s="69">
@@ -9473,7 +9667,7 @@
         <v>454886.2</v>
       </c>
       <c r="G16" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B16,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B16,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>682329.3</v>
       </c>
       <c r="H16" s="38">
@@ -9488,20 +9682,20 @@
     </row>
     <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B17,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B17,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột thinkpad</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
       </c>
       <c r="E17" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B17,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B17,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>230352.8</v>
       </c>
       <c r="F17" s="69">
@@ -9509,7 +9703,7 @@
         <v>230352.8</v>
       </c>
       <c r="G17" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B17,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B17,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>345529.19999999995</v>
       </c>
       <c r="H17" s="38">
@@ -9524,20 +9718,20 @@
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C18" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B18,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B18,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột M24</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
       </c>
       <c r="E18" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B18,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B18,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>93140.363408874851</v>
       </c>
       <c r="F18" s="69">
@@ -9545,7 +9739,7 @@
         <v>93140.363408874851</v>
       </c>
       <c r="G18" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B18,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B18,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>139710.54511331228</v>
       </c>
       <c r="H18" s="38">
@@ -9560,20 +9754,20 @@
     </row>
     <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C19" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B19,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B19,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột M24</v>
       </c>
       <c r="D19" s="7">
         <v>4</v>
       </c>
       <c r="E19" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B19,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B19,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>93140.363408874851</v>
       </c>
       <c r="F19" s="69">
@@ -9581,7 +9775,7 @@
         <v>372561.45363549941</v>
       </c>
       <c r="G19" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B19,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B19,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>139710.54511331228</v>
       </c>
       <c r="H19" s="38">
@@ -9596,20 +9790,20 @@
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C20" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B20,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B20,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Loa K3 Pro</v>
       </c>
       <c r="D20" s="7">
         <v>2</v>
       </c>
       <c r="E20" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B20,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B20,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>107421.71041666667</v>
       </c>
       <c r="F20" s="69">
@@ -9617,7 +9811,7 @@
         <v>214843.42083333334</v>
       </c>
       <c r="G20" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B20,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B20,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>161132.56562499999</v>
       </c>
       <c r="H20" s="38">
@@ -9632,20 +9826,20 @@
     </row>
     <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B21,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B21,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Loa TS32A</v>
       </c>
       <c r="D21" s="7">
         <v>1</v>
       </c>
       <c r="E21" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B21,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B21,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>137800</v>
       </c>
       <c r="F21" s="69">
@@ -9653,7 +9847,7 @@
         <v>137800</v>
       </c>
       <c r="G21" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B21,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B21,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>206700</v>
       </c>
       <c r="H21" s="38">
@@ -9668,20 +9862,20 @@
     </row>
     <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C22" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B22,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B22,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D22" s="7">
         <v>1</v>
       </c>
       <c r="E22" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B22,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B22,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F22" s="69">
@@ -9689,7 +9883,7 @@
         <v>121731.64389041116</v>
       </c>
       <c r="G22" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B22,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B22,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H22" s="38">
@@ -9704,20 +9898,20 @@
     </row>
     <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C23" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B23,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B23,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột M24</v>
       </c>
       <c r="D23" s="7">
         <v>1</v>
       </c>
       <c r="E23" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B23,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B23,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>93140.363408874851</v>
       </c>
       <c r="F23" s="69">
@@ -9725,7 +9919,7 @@
         <v>93140.363408874851</v>
       </c>
       <c r="G23" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B23,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B23,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>139710.54511331228</v>
       </c>
       <c r="H23" s="38">
@@ -9740,20 +9934,20 @@
     </row>
     <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C24" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B24,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B24,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D24" s="7">
         <v>1</v>
       </c>
       <c r="E24" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B24,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B24,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F24" s="69">
@@ -9761,7 +9955,7 @@
         <v>121731.64389041116</v>
       </c>
       <c r="G24" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B24,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B24,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H24" s="38">
@@ -9776,20 +9970,20 @@
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C25" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B25,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B25,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột M24</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
       </c>
       <c r="E25" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B25,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B25,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>93140.363408874851</v>
       </c>
       <c r="F25" s="69">
@@ -9797,7 +9991,7 @@
         <v>93140.363408874851</v>
       </c>
       <c r="G25" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B25,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B25,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>139710.54511331228</v>
       </c>
       <c r="H25" s="38">
@@ -9812,20 +10006,20 @@
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C26" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B26,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B26,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Loa K3 Pro</v>
       </c>
       <c r="D26" s="7">
         <v>1</v>
       </c>
       <c r="E26" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B26,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B26,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>107421.71041666667</v>
       </c>
       <c r="F26" s="69">
@@ -9833,7 +10027,7 @@
         <v>107421.71041666667</v>
       </c>
       <c r="G26" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B26,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B26,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>161132.56562499999</v>
       </c>
       <c r="H26" s="38">
@@ -9848,20 +10042,20 @@
     </row>
     <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C27" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B27,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B27,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 15.6</v>
       </c>
       <c r="D27" s="7">
         <v>1</v>
       </c>
       <c r="E27" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B27,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B27,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>108685.984970416</v>
       </c>
       <c r="F27" s="69">
@@ -9869,7 +10063,7 @@
         <v>108685.984970416</v>
       </c>
       <c r="G27" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B27,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B27,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>163028.977455624</v>
       </c>
       <c r="H27" s="38">
@@ -9884,20 +10078,20 @@
     </row>
     <row r="28" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C28" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B28,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B28,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Loa K3 Pro</v>
       </c>
       <c r="D28" s="7">
         <v>1</v>
       </c>
       <c r="E28" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B28,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B28,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>107421.71041666667</v>
       </c>
       <c r="F28" s="69">
@@ -9905,7 +10099,7 @@
         <v>107421.71041666667</v>
       </c>
       <c r="G28" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B28,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B28,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>161132.56562499999</v>
       </c>
       <c r="H28" s="38">
@@ -9920,20 +10114,20 @@
     </row>
     <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C29" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B29,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B29,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D29" s="7">
         <v>1</v>
       </c>
       <c r="E29" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B29,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B29,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F29" s="69">
@@ -9941,7 +10135,7 @@
         <v>121731.64389041116</v>
       </c>
       <c r="G29" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B29,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B29,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H29" s="38">
@@ -9956,20 +10150,20 @@
     </row>
     <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C30" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B30,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B30,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột thinkpad</v>
       </c>
       <c r="D30" s="7">
         <v>1</v>
       </c>
       <c r="E30" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B30,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B30,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>230352.8</v>
       </c>
       <c r="F30" s="69">
@@ -9977,7 +10171,7 @@
         <v>230352.8</v>
       </c>
       <c r="G30" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B30,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B30,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>345529.19999999995</v>
       </c>
       <c r="H30" s="38">
@@ -9992,20 +10186,20 @@
     </row>
     <row r="31" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B31,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B31,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Sạc Thinkplus gen 2 k hộp</v>
       </c>
       <c r="D31" s="7">
         <v>1</v>
       </c>
       <c r="E31" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B31,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B31,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>298513.47499999998</v>
       </c>
       <c r="F31" s="69">
@@ -10013,7 +10207,7 @@
         <v>298513.47499999998</v>
       </c>
       <c r="G31" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B31,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B31,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>447770.21249999997</v>
       </c>
       <c r="H31" s="38">
@@ -10031,17 +10225,17 @@
         <v>45081</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C32" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B32,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B32,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D32" s="7">
         <v>1</v>
       </c>
       <c r="E32" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B32,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B32,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F32" s="69">
@@ -10049,7 +10243,7 @@
         <v>121731.64389041116</v>
       </c>
       <c r="G32" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B32,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B32,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H32" s="38">
@@ -10067,17 +10261,17 @@
         <v>45083</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C33" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B33,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B33,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D33" s="7">
         <v>1</v>
       </c>
       <c r="E33" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B33,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B33,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F33" s="69">
@@ -10085,7 +10279,7 @@
         <v>121731.64389041116</v>
       </c>
       <c r="G33" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B33,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B33,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H33" s="38">
@@ -10106,14 +10300,14 @@
         <v>50</v>
       </c>
       <c r="C34" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B34,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B34,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Sạc Thinkplus gen 2 k hộp</v>
       </c>
       <c r="D34" s="7">
         <v>1</v>
       </c>
       <c r="E34" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B34,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B34,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>298513.47499999998</v>
       </c>
       <c r="F34" s="69">
@@ -10121,7 +10315,7 @@
         <v>298513.47499999998</v>
       </c>
       <c r="G34" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B34,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B34,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>447770.21249999997</v>
       </c>
       <c r="H34" s="38">
@@ -10142,14 +10336,14 @@
         <v>45</v>
       </c>
       <c r="C35" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B35,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B35,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột thinkpad</v>
       </c>
       <c r="D35" s="7">
         <v>1</v>
       </c>
       <c r="E35" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B35,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B35,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>230352.8</v>
       </c>
       <c r="F35" s="69">
@@ -10157,7 +10351,7 @@
         <v>230352.8</v>
       </c>
       <c r="G35" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B35,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B35,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>345529.19999999995</v>
       </c>
       <c r="H35" s="38">
@@ -10175,17 +10369,17 @@
         <v>45084</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C36" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B36,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B36,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D36" s="7">
         <v>1</v>
       </c>
       <c r="E36" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B36,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B36,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F36" s="69">
@@ -10193,7 +10387,7 @@
         <v>121731.64389041116</v>
       </c>
       <c r="G36" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B36,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B36,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H36" s="38">
@@ -10211,17 +10405,17 @@
         <v>45084</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C37" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B37,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B37,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D37" s="7">
         <v>1</v>
       </c>
       <c r="E37" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B37,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B37,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F37" s="69">
@@ -10229,7 +10423,7 @@
         <v>121731.64389041116</v>
       </c>
       <c r="G37" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B37,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B37,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H37" s="38">
@@ -10247,17 +10441,17 @@
         <v>45085</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C38" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B38,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B38,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D38" s="7">
         <v>1</v>
       </c>
       <c r="E38" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B38,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B38,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F38" s="69">
@@ -10265,7 +10459,7 @@
         <v>121731.64389041116</v>
       </c>
       <c r="G38" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B38,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B38,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H38" s="38">
@@ -10283,17 +10477,17 @@
         <v>45089</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C39" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B39,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B39,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột IBM</v>
       </c>
       <c r="D39" s="7">
         <v>1</v>
       </c>
       <c r="E39" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B39,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B39,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>182314.11635138027</v>
       </c>
       <c r="F39" s="69">
@@ -10301,7 +10495,7 @@
         <v>182314.11635138027</v>
       </c>
       <c r="G39" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B39,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B39,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>273471.17452707043</v>
       </c>
       <c r="H39" s="38">
@@ -10322,23 +10516,23 @@
         <v>136</v>
       </c>
       <c r="C40" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B40,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B40,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 14</v>
       </c>
       <c r="D40" s="7">
         <v>1</v>
       </c>
       <c r="E40" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B40,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>107353.16931892058</v>
+        <f>_xlfn.IFNA(VLOOKUP(B40,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>116217.6633636184</v>
       </c>
       <c r="F40" s="69">
         <f t="shared" si="0"/>
-        <v>107353.16931892058</v>
+        <v>116217.6633636184</v>
       </c>
       <c r="G40" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B40,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>161029.75397838088</v>
+        <f>_xlfn.IFNA(VLOOKUP(B40,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>174326.49504542758</v>
       </c>
       <c r="H40" s="38">
         <v>120000</v>
@@ -10355,17 +10549,17 @@
         <v>45089</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C41" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B41,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B41,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D41" s="7">
         <v>2</v>
       </c>
       <c r="E41" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B41,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B41,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F41" s="69">
@@ -10373,7 +10567,7 @@
         <v>243463.28778082231</v>
       </c>
       <c r="G41" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B41,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B41,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H41" s="38">
@@ -10394,14 +10588,14 @@
         <v>38</v>
       </c>
       <c r="C42" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B42,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B42,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>USB</v>
       </c>
       <c r="D42" s="7">
         <v>1</v>
       </c>
       <c r="E42" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B42,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B42,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>102168.40909090909</v>
       </c>
       <c r="F42" s="69">
@@ -10409,7 +10603,7 @@
         <v>102168.40909090909</v>
       </c>
       <c r="G42" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B42,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B42,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>153252.61363636365</v>
       </c>
       <c r="H42" s="38">
@@ -10430,23 +10624,23 @@
         <v>44</v>
       </c>
       <c r="C43" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B43,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B43,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>USB C 3in1</v>
       </c>
       <c r="D43" s="7">
         <v>1</v>
       </c>
       <c r="E43" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B43,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>92692.5</v>
+        <f>_xlfn.IFNA(VLOOKUP(B43,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>92929.038461538468</v>
       </c>
       <c r="F43" s="69">
         <f t="shared" si="0"/>
-        <v>92692.5</v>
+        <v>92929.038461538468</v>
       </c>
       <c r="G43" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B43,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>139038.75</v>
+        <f>_xlfn.IFNA(VLOOKUP(B43,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>139393.55769230769</v>
       </c>
       <c r="H43" s="38">
         <v>94000</v>
@@ -10463,17 +10657,17 @@
         <v>45096</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C44" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B44,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B44,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D44" s="7">
         <v>2</v>
       </c>
       <c r="E44" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B44,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B44,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F44" s="69">
@@ -10481,7 +10675,7 @@
         <v>243463.28778082231</v>
       </c>
       <c r="G44" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B44,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B44,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H44" s="38">
@@ -10502,14 +10696,14 @@
         <v>50</v>
       </c>
       <c r="C45" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B45,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B45,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Sạc Thinkplus gen 2 k hộp</v>
       </c>
       <c r="D45" s="7">
         <v>1</v>
       </c>
       <c r="E45" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B45,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B45,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>298513.47499999998</v>
       </c>
       <c r="F45" s="69">
@@ -10517,7 +10711,7 @@
         <v>298513.47499999998</v>
       </c>
       <c r="G45" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B45,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B45,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>447770.21249999997</v>
       </c>
       <c r="H45" s="38">
@@ -10538,23 +10732,23 @@
         <v>148</v>
       </c>
       <c r="C46" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B46,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B46,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>USB C 6in1</v>
       </c>
       <c r="D46" s="7">
         <v>1</v>
       </c>
       <c r="E46" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B46,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>212845.66666666666</v>
+        <f>_xlfn.IFNA(VLOOKUP(B46,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>212974.27777777778</v>
       </c>
       <c r="F46" s="69">
         <f t="shared" si="0"/>
-        <v>212845.66666666666</v>
+        <v>212974.27777777778</v>
       </c>
       <c r="G46" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B46,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>319268.5</v>
+        <f>_xlfn.IFNA(VLOOKUP(B46,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>319461.41666666669</v>
       </c>
       <c r="H46" s="38">
         <v>500000</v>
@@ -10574,14 +10768,14 @@
         <v>139</v>
       </c>
       <c r="C47" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B47,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B47,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Sạc Thinkplus gen 2 đen new</v>
       </c>
       <c r="D47" s="7">
         <v>1</v>
       </c>
       <c r="E47" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B47,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B47,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>434800</v>
       </c>
       <c r="F47" s="69">
@@ -10589,7 +10783,7 @@
         <v>434800</v>
       </c>
       <c r="G47" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B47,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B47,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>652200</v>
       </c>
       <c r="H47" s="38">
@@ -10610,23 +10804,23 @@
         <v>136</v>
       </c>
       <c r="C48" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B48,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B48,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 14</v>
       </c>
       <c r="D48" s="7">
         <v>1</v>
       </c>
       <c r="E48" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B48,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>107353.16931892058</v>
+        <f>_xlfn.IFNA(VLOOKUP(B48,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>116217.6633636184</v>
       </c>
       <c r="F48" s="69">
         <f t="shared" si="0"/>
-        <v>107353.16931892058</v>
+        <v>116217.6633636184</v>
       </c>
       <c r="G48" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B48,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>161029.75397838088</v>
+        <f>_xlfn.IFNA(VLOOKUP(B48,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>174326.49504542758</v>
       </c>
       <c r="H48" s="38">
         <v>239000</v>
@@ -10643,17 +10837,17 @@
         <v>45100</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C49" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B49,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B49,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D49" s="7">
         <v>1</v>
       </c>
       <c r="E49" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B49,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B49,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F49" s="69">
@@ -10661,7 +10855,7 @@
         <v>121731.64389041116</v>
       </c>
       <c r="G49" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B49,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B49,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H49" s="38">
@@ -10679,17 +10873,17 @@
         <v>45101</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C50" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B50,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B50,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 15.6</v>
       </c>
       <c r="D50" s="7">
         <v>1</v>
       </c>
       <c r="E50" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B50,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B50,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>108685.984970416</v>
       </c>
       <c r="F50" s="69">
@@ -10697,7 +10891,7 @@
         <v>108685.984970416</v>
       </c>
       <c r="G50" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B50,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B50,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>163028.977455624</v>
       </c>
       <c r="H50" s="38">
@@ -10718,23 +10912,23 @@
         <v>136</v>
       </c>
       <c r="C51" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B51,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B51,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 14</v>
       </c>
       <c r="D51" s="7">
         <v>1</v>
       </c>
       <c r="E51" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B51,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>107353.16931892058</v>
+        <f>_xlfn.IFNA(VLOOKUP(B51,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>116217.6633636184</v>
       </c>
       <c r="F51" s="69">
         <f t="shared" si="0"/>
-        <v>107353.16931892058</v>
+        <v>116217.6633636184</v>
       </c>
       <c r="G51" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B51,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>161029.75397838088</v>
+        <f>_xlfn.IFNA(VLOOKUP(B51,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>174326.49504542758</v>
       </c>
       <c r="H51" s="38">
         <v>250000</v>
@@ -10754,23 +10948,23 @@
         <v>44</v>
       </c>
       <c r="C52" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B52,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B52,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>USB C 3in1</v>
       </c>
       <c r="D52" s="7">
         <v>1</v>
       </c>
       <c r="E52" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B52,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>92692.5</v>
+        <f>_xlfn.IFNA(VLOOKUP(B52,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>92929.038461538468</v>
       </c>
       <c r="F52" s="69">
         <f t="shared" si="0"/>
-        <v>92692.5</v>
+        <v>92929.038461538468</v>
       </c>
       <c r="G52" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B52,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>139038.75</v>
+        <f>_xlfn.IFNA(VLOOKUP(B52,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>139393.55769230769</v>
       </c>
       <c r="H52" s="38">
         <v>200000</v>
@@ -10790,23 +10984,23 @@
         <v>136</v>
       </c>
       <c r="C53" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B53,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B53,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 14</v>
       </c>
       <c r="D53" s="7">
         <v>1</v>
       </c>
       <c r="E53" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B53,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>107353.16931892058</v>
+        <f>_xlfn.IFNA(VLOOKUP(B53,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>116217.6633636184</v>
       </c>
       <c r="F53" s="69">
         <f t="shared" si="0"/>
-        <v>107353.16931892058</v>
+        <v>116217.6633636184</v>
       </c>
       <c r="G53" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B53,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>161029.75397838088</v>
+        <f>_xlfn.IFNA(VLOOKUP(B53,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>174326.49504542758</v>
       </c>
       <c r="H53" s="38">
         <v>215000</v>
@@ -10826,23 +11020,23 @@
         <v>44</v>
       </c>
       <c r="C54" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B54,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B54,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>USB C 3in1</v>
       </c>
       <c r="D54" s="7">
         <v>1</v>
       </c>
       <c r="E54" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B54,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>92692.5</v>
+        <f>_xlfn.IFNA(VLOOKUP(B54,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>92929.038461538468</v>
       </c>
       <c r="F54" s="69">
         <f t="shared" si="0"/>
-        <v>92692.5</v>
+        <v>92929.038461538468</v>
       </c>
       <c r="G54" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B54,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>139038.75</v>
+        <f>_xlfn.IFNA(VLOOKUP(B54,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>139393.55769230769</v>
       </c>
       <c r="H54" s="38">
         <v>100000</v>
@@ -10862,14 +11056,14 @@
         <v>38</v>
       </c>
       <c r="C55" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B55,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B55,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>USB</v>
       </c>
       <c r="D55" s="7">
         <v>1</v>
       </c>
       <c r="E55" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B55,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B55,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>102168.40909090909</v>
       </c>
       <c r="F55" s="69">
@@ -10877,7 +11071,7 @@
         <v>102168.40909090909</v>
       </c>
       <c r="G55" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B55,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B55,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>153252.61363636365</v>
       </c>
       <c r="H55" s="38">
@@ -10898,14 +11092,14 @@
         <v>45</v>
       </c>
       <c r="C56" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B56,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B56,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột thinkpad</v>
       </c>
       <c r="D56" s="7">
         <v>1</v>
       </c>
       <c r="E56" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B56,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B56,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>230352.8</v>
       </c>
       <c r="F56" s="69">
@@ -10913,7 +11107,7 @@
         <v>230352.8</v>
       </c>
       <c r="G56" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B56,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B56,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>345529.19999999995</v>
       </c>
       <c r="H56" s="38">
@@ -10931,17 +11125,17 @@
         <v>45103</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C57" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B57,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B57,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D57" s="7">
         <v>1</v>
       </c>
       <c r="E57" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B57,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B57,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F57" s="69">
@@ -10949,7 +11143,7 @@
         <v>121731.64389041116</v>
       </c>
       <c r="G57" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B57,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B57,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H57" s="38">
@@ -10967,17 +11161,17 @@
         <v>45107</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C58" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B58,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B58,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột M24</v>
       </c>
       <c r="D58" s="7">
         <v>1</v>
       </c>
       <c r="E58" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B58,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B58,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>93140.363408874851</v>
       </c>
       <c r="F58" s="69">
@@ -10985,7 +11179,7 @@
         <v>93140.363408874851</v>
       </c>
       <c r="G58" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B58,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B58,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>139710.54511331228</v>
       </c>
       <c r="H58" s="38">
@@ -11006,23 +11200,23 @@
         <v>136</v>
       </c>
       <c r="C59" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B59,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B59,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 14</v>
       </c>
       <c r="D59" s="7">
         <v>1</v>
       </c>
       <c r="E59" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B59,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>107353.16931892058</v>
+        <f>_xlfn.IFNA(VLOOKUP(B59,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>116217.6633636184</v>
       </c>
       <c r="F59" s="69">
         <f t="shared" si="8"/>
-        <v>107353.16931892058</v>
+        <v>116217.6633636184</v>
       </c>
       <c r="G59" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B59,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>161029.75397838088</v>
+        <f>_xlfn.IFNA(VLOOKUP(B59,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>174326.49504542758</v>
       </c>
       <c r="H59" s="38">
         <v>230000</v>
@@ -11039,17 +11233,17 @@
         <v>45112</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C60" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B60,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B60,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột M24</v>
       </c>
       <c r="D60" s="7">
         <v>1</v>
       </c>
       <c r="E60" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B60,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B60,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>93140.363408874851</v>
       </c>
       <c r="F60" s="69">
@@ -11057,7 +11251,7 @@
         <v>93140.363408874851</v>
       </c>
       <c r="G60" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B60,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B60,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>139710.54511331228</v>
       </c>
       <c r="H60" s="38">
@@ -11075,17 +11269,17 @@
         <v>45113</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C61" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B61,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B61,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Loa K3 Pro</v>
       </c>
       <c r="D61" s="7">
         <v>2</v>
       </c>
       <c r="E61" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B61,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B61,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>107421.71041666667</v>
       </c>
       <c r="F61" s="69">
@@ -11093,7 +11287,7 @@
         <v>214843.42083333334</v>
       </c>
       <c r="G61" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B61,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B61,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>161132.56562499999</v>
       </c>
       <c r="H61" s="38">
@@ -11114,14 +11308,14 @@
         <v>38</v>
       </c>
       <c r="C62" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B62,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B62,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>USB</v>
       </c>
       <c r="D62" s="7">
         <v>1</v>
       </c>
       <c r="E62" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B62,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B62,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>102168.40909090909</v>
       </c>
       <c r="F62" s="69">
@@ -11129,7 +11323,7 @@
         <v>102168.40909090909</v>
       </c>
       <c r="G62" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B62,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B62,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>153252.61363636365</v>
       </c>
       <c r="H62" s="38">
@@ -11147,17 +11341,17 @@
         <v>45118</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C63" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B63,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B63,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D63" s="7">
         <v>1</v>
       </c>
       <c r="E63" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B63,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B63,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F63" s="69">
@@ -11165,7 +11359,7 @@
         <v>121731.64389041116</v>
       </c>
       <c r="G63" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B63,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B63,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H63" s="38">
@@ -11186,14 +11380,14 @@
         <v>50</v>
       </c>
       <c r="C64" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B64,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B64,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Sạc Thinkplus gen 2 k hộp</v>
       </c>
       <c r="D64" s="7">
         <v>1</v>
       </c>
       <c r="E64" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B64,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B64,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>298513.47499999998</v>
       </c>
       <c r="F64" s="69">
@@ -11201,7 +11395,7 @@
         <v>298513.47499999998</v>
       </c>
       <c r="G64" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B64,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B64,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>447770.21249999997</v>
       </c>
       <c r="H64" s="38">
@@ -11219,17 +11413,17 @@
         <v>45120</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C65" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B65,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B65,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột M24</v>
       </c>
       <c r="D65" s="7">
         <v>1</v>
       </c>
       <c r="E65" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B65,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B65,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>93140.363408874851</v>
       </c>
       <c r="F65" s="69">
@@ -11237,7 +11431,7 @@
         <v>93140.363408874851</v>
       </c>
       <c r="G65" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B65,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B65,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>139710.54511331228</v>
       </c>
       <c r="H65" s="38">
@@ -11255,17 +11449,17 @@
         <v>45120</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C66" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B66,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B66,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột M24</v>
       </c>
       <c r="D66" s="7">
         <v>1</v>
       </c>
       <c r="E66" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B66,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B66,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>93140.363408874851</v>
       </c>
       <c r="F66" s="69">
@@ -11273,7 +11467,7 @@
         <v>93140.363408874851</v>
       </c>
       <c r="G66" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B66,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B66,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>139710.54511331228</v>
       </c>
       <c r="H66" s="38">
@@ -11294,14 +11488,14 @@
         <v>43</v>
       </c>
       <c r="C67" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B67,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B67,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Loa TS32A</v>
       </c>
       <c r="D67" s="7">
         <v>1</v>
       </c>
       <c r="E67" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B67,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B67,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>137800</v>
       </c>
       <c r="F67" s="69">
@@ -11309,7 +11503,7 @@
         <v>137800</v>
       </c>
       <c r="G67" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B67,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B67,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>206700</v>
       </c>
       <c r="H67" s="38">
@@ -11330,14 +11524,14 @@
         <v>50</v>
       </c>
       <c r="C68" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B68,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B68,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Sạc Thinkplus gen 2 k hộp</v>
       </c>
       <c r="D68" s="7">
         <v>1</v>
       </c>
       <c r="E68" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B68,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B68,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>298513.47499999998</v>
       </c>
       <c r="F68" s="69">
@@ -11345,14 +11539,14 @@
         <v>298513.47499999998</v>
       </c>
       <c r="G68" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B68,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B68,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>447770.21249999997</v>
       </c>
       <c r="H68" s="38">
         <v>400000</v>
       </c>
       <c r="I68" s="38">
-        <f t="shared" ref="I68:I113" si="12">D68*H68</f>
+        <f t="shared" ref="I68:I112" si="12">D68*H68</f>
         <v>400000</v>
       </c>
       <c r="J68" s="28"/>
@@ -11366,23 +11560,23 @@
         <v>44</v>
       </c>
       <c r="C69" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B69,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B69,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>USB C 3in1</v>
       </c>
       <c r="D69" s="7">
         <v>8</v>
       </c>
       <c r="E69" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B69,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>92692.5</v>
+        <f>_xlfn.IFNA(VLOOKUP(B69,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>92929.038461538468</v>
       </c>
       <c r="F69" s="69">
-        <f t="shared" ref="F69:F113" si="13">+D69*E69</f>
-        <v>741540</v>
+        <f t="shared" ref="F69:F112" si="13">+D69*E69</f>
+        <v>743432.30769230775</v>
       </c>
       <c r="G69" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B69,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>139038.75</v>
+        <f>_xlfn.IFNA(VLOOKUP(B69,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>139393.55769230769</v>
       </c>
       <c r="H69" s="38">
         <v>125000</v>
@@ -11399,17 +11593,17 @@
         <v>45126</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C70" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B70,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B70,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột M24</v>
       </c>
       <c r="D70" s="7">
         <v>1</v>
       </c>
       <c r="E70" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B70,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B70,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>93140.363408874851</v>
       </c>
       <c r="F70" s="69">
@@ -11417,7 +11611,7 @@
         <v>93140.363408874851</v>
       </c>
       <c r="G70" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B70,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B70,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>139710.54511331228</v>
       </c>
       <c r="H70" s="38">
@@ -11435,17 +11629,17 @@
         <v>45128</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C71" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B71,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B71,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 15.6</v>
       </c>
       <c r="D71" s="7">
         <v>1</v>
       </c>
       <c r="E71" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B71,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B71,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>108685.984970416</v>
       </c>
       <c r="F71" s="69">
@@ -11453,7 +11647,7 @@
         <v>108685.984970416</v>
       </c>
       <c r="G71" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B71,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B71,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>163028.977455624</v>
       </c>
       <c r="H71" s="38">
@@ -11474,23 +11668,23 @@
         <v>136</v>
       </c>
       <c r="C72" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B72,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B72,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 14</v>
       </c>
       <c r="D72" s="7">
         <v>1</v>
       </c>
       <c r="E72" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B72,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>107353.16931892058</v>
+        <f>_xlfn.IFNA(VLOOKUP(B72,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>116217.6633636184</v>
       </c>
       <c r="F72" s="69">
         <f t="shared" si="13"/>
-        <v>107353.16931892058</v>
+        <v>116217.6633636184</v>
       </c>
       <c r="G72" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B72,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>161029.75397838088</v>
+        <f>_xlfn.IFNA(VLOOKUP(B72,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>174326.49504542758</v>
       </c>
       <c r="H72" s="38">
         <v>250000</v>
@@ -11510,23 +11704,23 @@
         <v>44</v>
       </c>
       <c r="C73" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B73,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B73,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>USB C 3in1</v>
       </c>
       <c r="D73" s="7">
         <v>1</v>
       </c>
       <c r="E73" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B73,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>92692.5</v>
+        <f>_xlfn.IFNA(VLOOKUP(B73,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>92929.038461538468</v>
       </c>
       <c r="F73" s="69">
         <f t="shared" si="13"/>
-        <v>92692.5</v>
+        <v>92929.038461538468</v>
       </c>
       <c r="G73" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B73,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>139038.75</v>
+        <f>_xlfn.IFNA(VLOOKUP(B73,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>139393.55769230769</v>
       </c>
       <c r="H73" s="38">
         <v>250000</v>
@@ -11543,17 +11737,17 @@
         <v>45129</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C74" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B74,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B74,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D74" s="7">
         <v>1</v>
       </c>
       <c r="E74" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B74,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B74,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F74" s="69">
@@ -11561,7 +11755,7 @@
         <v>121731.64389041116</v>
       </c>
       <c r="G74" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B74,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B74,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H74" s="38">
@@ -11582,14 +11776,14 @@
         <v>42</v>
       </c>
       <c r="C75" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B75,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B75,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Sạc YOGA</v>
       </c>
       <c r="D75" s="7">
         <v>1</v>
       </c>
       <c r="E75" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B75,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B75,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>238082.66611622242</v>
       </c>
       <c r="F75" s="69">
@@ -11597,7 +11791,7 @@
         <v>238082.66611622242</v>
       </c>
       <c r="G75" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B75,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B75,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>357123.99917433364</v>
       </c>
       <c r="H75" s="38">
@@ -11618,23 +11812,23 @@
         <v>136</v>
       </c>
       <c r="C76" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B76,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B76,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 14</v>
       </c>
       <c r="D76" s="7">
         <v>1</v>
       </c>
       <c r="E76" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B76,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>107353.16931892058</v>
+        <f>_xlfn.IFNA(VLOOKUP(B76,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>116217.6633636184</v>
       </c>
       <c r="F76" s="69">
         <f t="shared" si="13"/>
-        <v>107353.16931892058</v>
+        <v>116217.6633636184</v>
       </c>
       <c r="G76" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B76,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>161029.75397838088</v>
+        <f>_xlfn.IFNA(VLOOKUP(B76,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>174326.49504542758</v>
       </c>
       <c r="H76" s="38">
         <v>230000</v>
@@ -11651,17 +11845,17 @@
         <v>45134</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C77" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B77,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B77,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D77" s="7">
         <v>1</v>
       </c>
       <c r="E77" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B77,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B77,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F77" s="69">
@@ -11669,7 +11863,7 @@
         <v>121731.64389041116</v>
       </c>
       <c r="G77" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B77,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B77,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H77" s="38">
@@ -11687,17 +11881,17 @@
         <v>45134</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C78" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B78,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B78,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Loa K3 Pro</v>
       </c>
       <c r="D78" s="7">
         <v>1</v>
       </c>
       <c r="E78" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B78,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B78,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>107421.71041666667</v>
       </c>
       <c r="F78" s="69">
@@ -11705,7 +11899,7 @@
         <v>107421.71041666667</v>
       </c>
       <c r="G78" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B78,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B78,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>161132.56562499999</v>
       </c>
       <c r="H78" s="38">
@@ -11723,17 +11917,17 @@
         <v>45134</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C79" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B79,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B79,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D79" s="7">
         <v>1</v>
       </c>
       <c r="E79" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B79,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B79,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F79" s="69">
@@ -11741,7 +11935,7 @@
         <v>121731.64389041116</v>
       </c>
       <c r="G79" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B79,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B79,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H79" s="38">
@@ -11759,17 +11953,17 @@
         <v>45136</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C80" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B80,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B80,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Loa K3 Pro</v>
       </c>
       <c r="D80" s="7">
         <v>1</v>
       </c>
       <c r="E80" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B80,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B80,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>107421.71041666667</v>
       </c>
       <c r="F80" s="69">
@@ -11777,7 +11971,7 @@
         <v>107421.71041666667</v>
       </c>
       <c r="G80" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B80,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B80,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>161132.56562499999</v>
       </c>
       <c r="H80" s="38">
@@ -11798,23 +11992,23 @@
         <v>44</v>
       </c>
       <c r="C81" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B81,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B81,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>USB C 3in1</v>
       </c>
       <c r="D81" s="7">
         <v>1</v>
       </c>
       <c r="E81" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B81,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>92692.5</v>
+        <f>_xlfn.IFNA(VLOOKUP(B81,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>92929.038461538468</v>
       </c>
       <c r="F81" s="69">
         <f t="shared" si="13"/>
-        <v>92692.5</v>
+        <v>92929.038461538468</v>
       </c>
       <c r="G81" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B81,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>139038.75</v>
+        <f>_xlfn.IFNA(VLOOKUP(B81,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>139393.55769230769</v>
       </c>
       <c r="H81" s="38">
         <v>250000</v>
@@ -11834,14 +12028,14 @@
         <v>38</v>
       </c>
       <c r="C82" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B82,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B82,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>USB</v>
       </c>
       <c r="D82" s="7">
         <v>5</v>
       </c>
       <c r="E82" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B82,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B82,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>102168.40909090909</v>
       </c>
       <c r="F82" s="69">
@@ -11849,7 +12043,7 @@
         <v>510842.04545454541</v>
       </c>
       <c r="G82" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B82,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B82,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>153252.61363636365</v>
       </c>
       <c r="H82" s="38">
@@ -11870,23 +12064,23 @@
         <v>136</v>
       </c>
       <c r="C83" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B83,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B83,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 14</v>
       </c>
       <c r="D83" s="7">
         <v>4</v>
       </c>
       <c r="E83" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B83,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>107353.16931892058</v>
+        <f>_xlfn.IFNA(VLOOKUP(B83,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>116217.6633636184</v>
       </c>
       <c r="F83" s="69">
         <f t="shared" si="13"/>
-        <v>429412.67727568233</v>
+        <v>464870.65345447359</v>
       </c>
       <c r="G83" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B83,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>161029.75397838088</v>
+        <f>_xlfn.IFNA(VLOOKUP(B83,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>174326.49504542758</v>
       </c>
       <c r="H83" s="38">
         <v>160000</v>
@@ -11903,17 +12097,17 @@
         <v>45137</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C84" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B84,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B84,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 15.6</v>
       </c>
       <c r="D84" s="7">
         <v>1</v>
       </c>
       <c r="E84" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B84,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B84,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>108685.984970416</v>
       </c>
       <c r="F84" s="69">
@@ -11921,7 +12115,7 @@
         <v>108685.984970416</v>
       </c>
       <c r="G84" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B84,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B84,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>163028.977455624</v>
       </c>
       <c r="H84" s="38">
@@ -11942,14 +12136,14 @@
         <v>42</v>
       </c>
       <c r="C85" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B85,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B85,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Sạc YOGA</v>
       </c>
       <c r="D85" s="7">
         <v>1</v>
       </c>
       <c r="E85" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B85,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B85,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>238082.66611622242</v>
       </c>
       <c r="F85" s="69">
@@ -11957,7 +12151,7 @@
         <v>238082.66611622242</v>
       </c>
       <c r="G85" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B85,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B85,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>357123.99917433364</v>
       </c>
       <c r="H85" s="38">
@@ -11975,17 +12169,17 @@
         <v>45140</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C86" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B86,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B86,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Loa K3 Pro</v>
       </c>
       <c r="D86" s="7">
         <v>1</v>
       </c>
       <c r="E86" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B86,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B86,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>107421.71041666667</v>
       </c>
       <c r="F86" s="69">
@@ -11993,7 +12187,7 @@
         <v>107421.71041666667</v>
       </c>
       <c r="G86" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B86,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B86,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>161132.56562499999</v>
       </c>
       <c r="H86" s="38">
@@ -12014,14 +12208,14 @@
         <v>153</v>
       </c>
       <c r="C87" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B87,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B87,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Sạc YOGA 2 cổng C</v>
       </c>
       <c r="D87" s="7">
         <v>1</v>
       </c>
       <c r="E87" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B87,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B87,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>264191.20633971289</v>
       </c>
       <c r="F87" s="69">
@@ -12029,7 +12223,7 @@
         <v>264191.20633971289</v>
       </c>
       <c r="G87" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B87,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B87,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>396286.80950956931</v>
       </c>
       <c r="H87" s="38">
@@ -12050,14 +12244,14 @@
         <v>153</v>
       </c>
       <c r="C88" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B88,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B88,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Sạc YOGA 2 cổng C</v>
       </c>
       <c r="D88" s="7">
         <v>1</v>
       </c>
       <c r="E88" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B88,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B88,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>264191.20633971289</v>
       </c>
       <c r="F88" s="69">
@@ -12065,7 +12259,7 @@
         <v>264191.20633971289</v>
       </c>
       <c r="G88" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B88,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B88,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>396286.80950956931</v>
       </c>
       <c r="H88" s="38">
@@ -12086,14 +12280,14 @@
         <v>41</v>
       </c>
       <c r="C89" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B89,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B89,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D89" s="7">
         <v>1</v>
       </c>
       <c r="E89" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B89,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B89,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F89" s="69">
@@ -12101,7 +12295,7 @@
         <v>121731.64389041116</v>
       </c>
       <c r="G89" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B89,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B89,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H89" s="38">
@@ -12122,14 +12316,14 @@
         <v>38</v>
       </c>
       <c r="C90" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B90,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B90,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>USB</v>
       </c>
       <c r="D90" s="7">
         <v>1</v>
       </c>
       <c r="E90" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B90,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B90,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>102168.40909090909</v>
       </c>
       <c r="F90" s="69">
@@ -12137,7 +12331,7 @@
         <v>102168.40909090909</v>
       </c>
       <c r="G90" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B90,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B90,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>153252.61363636365</v>
       </c>
       <c r="H90" s="38">
@@ -12155,17 +12349,17 @@
         <v>45149</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C91" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B91,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B91,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột M24</v>
       </c>
       <c r="D91" s="7">
         <v>1</v>
       </c>
       <c r="E91" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B91,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B91,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>93140.363408874851</v>
       </c>
       <c r="F91" s="69">
@@ -12173,7 +12367,7 @@
         <v>93140.363408874851</v>
       </c>
       <c r="G91" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B91,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B91,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>139710.54511331228</v>
       </c>
       <c r="H91" s="38">
@@ -12191,17 +12385,17 @@
         <v>45149</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C92" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B92,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B92,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D92" s="7">
         <v>1</v>
       </c>
       <c r="E92" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B92,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B92,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F92" s="69">
@@ -12209,7 +12403,7 @@
         <v>121731.64389041116</v>
       </c>
       <c r="G92" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B92,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B92,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H92" s="38">
@@ -12227,17 +12421,17 @@
         <v>45149</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C93" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B93,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B93,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột M24</v>
       </c>
       <c r="D93" s="7">
         <v>30</v>
       </c>
       <c r="E93" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B93,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B93,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>93140.363408874851</v>
       </c>
       <c r="F93" s="69">
@@ -12245,7 +12439,7 @@
         <v>2794210.9022662453</v>
       </c>
       <c r="G93" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B93,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B93,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>139710.54511331228</v>
       </c>
       <c r="H93" s="38">
@@ -12263,17 +12457,17 @@
         <v>45149</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C94" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B94,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B94,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D94" s="7">
         <v>1</v>
       </c>
       <c r="E94" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B94,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B94,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F94" s="69">
@@ -12281,7 +12475,7 @@
         <v>121731.64389041116</v>
       </c>
       <c r="G94" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B94,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B94,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H94" s="38">
@@ -12302,23 +12496,23 @@
         <v>44</v>
       </c>
       <c r="C95" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B95,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B95,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>USB C 3in1</v>
       </c>
       <c r="D95" s="7">
         <v>1</v>
       </c>
       <c r="E95" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B95,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>92692.5</v>
+        <f>_xlfn.IFNA(VLOOKUP(B95,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>92929.038461538468</v>
       </c>
       <c r="F95" s="69">
         <f t="shared" si="13"/>
-        <v>92692.5</v>
+        <v>92929.038461538468</v>
       </c>
       <c r="G95" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B95,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>139038.75</v>
+        <f>_xlfn.IFNA(VLOOKUP(B95,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>139393.55769230769</v>
       </c>
       <c r="H95" s="38">
         <v>250000</v>
@@ -12338,14 +12532,14 @@
         <v>38</v>
       </c>
       <c r="C96" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B96,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B96,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>USB</v>
       </c>
       <c r="D96" s="7">
         <v>1</v>
       </c>
       <c r="E96" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B96,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B96,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>102168.40909090909</v>
       </c>
       <c r="F96" s="69">
@@ -12353,7 +12547,7 @@
         <v>102168.40909090909</v>
       </c>
       <c r="G96" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B96,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B96,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>153252.61363636365</v>
       </c>
       <c r="H96" s="38">
@@ -12374,23 +12568,23 @@
         <v>136</v>
       </c>
       <c r="C97" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B97,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B97,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 14</v>
       </c>
       <c r="D97" s="7">
         <v>1</v>
       </c>
       <c r="E97" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B97,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>107353.16931892058</v>
+        <f>_xlfn.IFNA(VLOOKUP(B97,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>116217.6633636184</v>
       </c>
       <c r="F97" s="69">
         <f t="shared" si="13"/>
-        <v>107353.16931892058</v>
+        <v>116217.6633636184</v>
       </c>
       <c r="G97" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B97,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>161029.75397838088</v>
+        <f>_xlfn.IFNA(VLOOKUP(B97,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>174326.49504542758</v>
       </c>
       <c r="H97" s="38">
         <v>200000</v>
@@ -12410,14 +12604,14 @@
         <v>41</v>
       </c>
       <c r="C98" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B98,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B98,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D98" s="7">
         <v>10</v>
       </c>
       <c r="E98" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B98,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B98,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F98" s="69">
@@ -12425,7 +12619,7 @@
         <v>1217316.4389041115</v>
       </c>
       <c r="G98" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B98,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B98,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H98" s="38">
@@ -12446,23 +12640,23 @@
         <v>136</v>
       </c>
       <c r="C99" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B99,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B99,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 14</v>
       </c>
       <c r="D99" s="7">
         <v>8</v>
       </c>
       <c r="E99" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B99,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>107353.16931892058</v>
+        <f>_xlfn.IFNA(VLOOKUP(B99,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>116217.6633636184</v>
       </c>
       <c r="F99" s="69">
         <f t="shared" si="13"/>
-        <v>858825.35455136467</v>
+        <v>929741.30690894718</v>
       </c>
       <c r="G99" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B99,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>161029.75397838088</v>
+        <f>_xlfn.IFNA(VLOOKUP(B99,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>174326.49504542758</v>
       </c>
       <c r="H99" s="38">
         <v>160000</v>
@@ -12482,23 +12676,23 @@
         <v>44</v>
       </c>
       <c r="C100" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B100,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B100,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>USB C 3in1</v>
       </c>
       <c r="D100" s="7">
         <v>5</v>
       </c>
       <c r="E100" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B100,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>92692.5</v>
+        <f>_xlfn.IFNA(VLOOKUP(B100,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>92929.038461538468</v>
       </c>
       <c r="F100" s="69">
         <f t="shared" si="13"/>
-        <v>463462.5</v>
+        <v>464645.19230769237</v>
       </c>
       <c r="G100" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B100,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>139038.75</v>
+        <f>_xlfn.IFNA(VLOOKUP(B100,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>139393.55769230769</v>
       </c>
       <c r="H100" s="38">
         <v>120000</v>
@@ -12515,17 +12709,17 @@
         <v>45159</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C101" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B101,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B101,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 15.6</v>
       </c>
       <c r="D101" s="7">
         <v>2</v>
       </c>
       <c r="E101" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B101,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B101,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>108685.984970416</v>
       </c>
       <c r="F101" s="69">
@@ -12533,7 +12727,7 @@
         <v>217371.969940832</v>
       </c>
       <c r="G101" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B101,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B101,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>163028.977455624</v>
       </c>
       <c r="H101" s="38">
@@ -12551,17 +12745,17 @@
         <v>45159</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C102" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B102,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B102,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D102" s="7">
         <v>5</v>
       </c>
       <c r="E102" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B102,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B102,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F102" s="69">
@@ -12569,7 +12763,7 @@
         <v>608658.21945205575</v>
       </c>
       <c r="G102" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B102,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B102,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H102" s="38">
@@ -12590,23 +12784,23 @@
         <v>136</v>
       </c>
       <c r="C103" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B103,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B103,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 14</v>
       </c>
       <c r="D103" s="7">
         <v>1</v>
       </c>
       <c r="E103" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B103,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>107353.16931892058</v>
+        <f>_xlfn.IFNA(VLOOKUP(B103,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>116217.6633636184</v>
       </c>
       <c r="F103" s="69">
         <f t="shared" si="13"/>
-        <v>107353.16931892058</v>
+        <v>116217.6633636184</v>
       </c>
       <c r="G103" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B103,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>161029.75397838088</v>
+        <f>_xlfn.IFNA(VLOOKUP(B103,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>174326.49504542758</v>
       </c>
       <c r="H103" s="38">
         <v>202000</v>
@@ -12623,17 +12817,17 @@
         <v>45165</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C104" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B104,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B104,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 15.6</v>
       </c>
       <c r="D104" s="7">
         <v>1</v>
       </c>
       <c r="E104" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B104,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B104,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>108685.984970416</v>
       </c>
       <c r="F104" s="69">
@@ -12641,7 +12835,7 @@
         <v>108685.984970416</v>
       </c>
       <c r="G104" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B104,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B104,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>163028.977455624</v>
       </c>
       <c r="H104" s="38">
@@ -12662,14 +12856,14 @@
         <v>39</v>
       </c>
       <c r="C105" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B105,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B105,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột M24</v>
       </c>
       <c r="D105" s="7">
         <v>1</v>
       </c>
       <c r="E105" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B105,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B105,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>93140.363408874851</v>
       </c>
       <c r="F105" s="69">
@@ -12677,7 +12871,7 @@
         <v>93140.363408874851</v>
       </c>
       <c r="G105" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B105,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B105,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>139710.54511331228</v>
       </c>
       <c r="H105" s="38">
@@ -12698,14 +12892,14 @@
         <v>46</v>
       </c>
       <c r="C106" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B106,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B106,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Trải bàn xiaomi</v>
       </c>
       <c r="D106" s="7">
         <v>2</v>
       </c>
       <c r="E106" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B106,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B106,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>123485.81818181816</v>
       </c>
       <c r="F106" s="69">
@@ -12713,7 +12907,7 @@
         <v>246971.63636363632</v>
       </c>
       <c r="G106" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B106,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B106,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>185228.72727272724</v>
       </c>
       <c r="H106" s="38">
@@ -12731,17 +12925,17 @@
         <v>45169</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C107" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B107,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B107,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột M24</v>
       </c>
       <c r="D107" s="7">
         <v>1</v>
       </c>
       <c r="E107" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B107,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B107,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>93140.363408874851</v>
       </c>
       <c r="F107" s="69">
@@ -12749,7 +12943,7 @@
         <v>93140.363408874851</v>
       </c>
       <c r="G107" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B107,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B107,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>139710.54511331228</v>
       </c>
       <c r="H107" s="38">
@@ -12770,23 +12964,23 @@
         <v>136</v>
       </c>
       <c r="C108" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B108,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B108,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 14</v>
       </c>
       <c r="D108" s="7">
         <v>1</v>
       </c>
       <c r="E108" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B108,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>107353.16931892058</v>
+        <f>_xlfn.IFNA(VLOOKUP(B108,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>116217.6633636184</v>
       </c>
       <c r="F108" s="69">
         <f t="shared" si="13"/>
-        <v>107353.16931892058</v>
+        <v>116217.6633636184</v>
       </c>
       <c r="G108" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B108,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>161029.75397838088</v>
+        <f>_xlfn.IFNA(VLOOKUP(B108,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>174326.49504542758</v>
       </c>
       <c r="H108" s="38">
         <v>150000</v>
@@ -12803,17 +12997,17 @@
         <v>45170</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C109" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B109,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B109,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="D109" s="7">
         <v>1</v>
       </c>
       <c r="E109" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B109,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B109,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>121731.64389041116</v>
       </c>
       <c r="F109" s="69">
@@ -12821,7 +13015,7 @@
         <v>121731.64389041116</v>
       </c>
       <c r="G109" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B109,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B109,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>182597.46583561675</v>
       </c>
       <c r="H109" s="38">
@@ -12842,23 +13036,23 @@
         <v>136</v>
       </c>
       <c r="C110" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B110,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B110,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 14</v>
       </c>
       <c r="D110" s="7">
         <v>18</v>
       </c>
       <c r="E110" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B110,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
-        <v>107353.16931892058</v>
+        <f>_xlfn.IFNA(VLOOKUP(B110,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>116217.6633636184</v>
       </c>
       <c r="F110" s="69">
         <f t="shared" si="13"/>
-        <v>1932357.0477405705</v>
+        <v>2091917.9405451312</v>
       </c>
       <c r="G110" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B110,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
-        <v>161029.75397838088</v>
+        <f>_xlfn.IFNA(VLOOKUP(B110,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>174326.49504542758</v>
       </c>
       <c r="H110" s="38">
         <v>160000</v>
@@ -12875,17 +13069,17 @@
         <v>45174</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C111" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B111,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B111,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 15.6</v>
       </c>
       <c r="D111" s="7">
         <v>2</v>
       </c>
       <c r="E111" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B111,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B111,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>108685.984970416</v>
       </c>
       <c r="F111" s="69">
@@ -12893,7 +13087,7 @@
         <v>217371.969940832</v>
       </c>
       <c r="G111" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B111,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B111,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>163028.977455624</v>
       </c>
       <c r="H111" s="38">
@@ -12911,17 +13105,17 @@
         <v>45176</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C112" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B112,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B112,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột M24</v>
       </c>
       <c r="D112" s="7">
         <v>1</v>
       </c>
       <c r="E112" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B112,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B112,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>93140.363408874851</v>
       </c>
       <c r="F112" s="69">
@@ -12929,7 +13123,7 @@
         <v>93140.363408874851</v>
       </c>
       <c r="G112" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B112,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B112,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>139710.54511331228</v>
       </c>
       <c r="H112" s="38">
@@ -12947,66 +13141,977 @@
         <v>45178</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C113" s="28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B113,'Danh mục hàng hóa'!$C$7:$D$34,2,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B113,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
         <v>Chuột M24</v>
       </c>
       <c r="D113" s="7">
         <v>1</v>
       </c>
       <c r="E113" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B113,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B113,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
         <v>93140.363408874851</v>
       </c>
       <c r="F113" s="69">
-        <f t="shared" si="13"/>
+        <f>+D113*E113</f>
         <v>93140.363408874851</v>
       </c>
       <c r="G113" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B113,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B113,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>139710.54511331228</v>
       </c>
       <c r="H113" s="38">
         <v>160000</v>
       </c>
       <c r="I113" s="38">
-        <f t="shared" si="12"/>
+        <f>D113*H113</f>
         <v>160000</v>
       </c>
       <c r="J113" s="28"/>
       <c r="K113" s="7"/>
     </row>
-    <row r="114" spans="1:11" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="23" t="s">
+    <row r="114" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="107">
+        <v>45179</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C114" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B114,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Túi chống sốc màu đen Xiaoxin 14</v>
+      </c>
+      <c r="D114" s="7">
+        <v>1</v>
+      </c>
+      <c r="E114" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B114,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>116217.6633636184</v>
+      </c>
+      <c r="F114" s="69">
+        <f t="shared" ref="F114:F137" si="14">+D114*E114</f>
+        <v>116217.6633636184</v>
+      </c>
+      <c r="G114" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B114,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>174326.49504542758</v>
+      </c>
+      <c r="H114" s="38">
+        <v>150000</v>
+      </c>
+      <c r="I114" s="38">
+        <f t="shared" ref="I114:I140" si="15">D114*H114</f>
+        <v>150000</v>
+      </c>
+      <c r="J114" s="28"/>
+      <c r="K114" s="7"/>
+    </row>
+    <row r="115" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="107">
+        <v>45181</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B115,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Chuột thinkpad</v>
+      </c>
+      <c r="D115" s="7">
+        <v>1</v>
+      </c>
+      <c r="E115" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B115,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>230352.8</v>
+      </c>
+      <c r="F115" s="69">
+        <f t="shared" si="14"/>
+        <v>230352.8</v>
+      </c>
+      <c r="G115" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B115,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>345529.19999999995</v>
+      </c>
+      <c r="H115" s="38">
+        <v>484000</v>
+      </c>
+      <c r="I115" s="38">
+        <f t="shared" si="15"/>
+        <v>484000</v>
+      </c>
+      <c r="J115" s="28"/>
+      <c r="K115" s="7"/>
+    </row>
+    <row r="116" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="107">
+        <v>45188</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C116" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B116,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Chuột M24</v>
+      </c>
+      <c r="D116" s="7">
+        <v>20</v>
+      </c>
+      <c r="E116" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B116,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>93140.363408874851</v>
+      </c>
+      <c r="F116" s="69">
+        <f t="shared" si="14"/>
+        <v>1862807.268177497</v>
+      </c>
+      <c r="G116" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B116,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>139710.54511331228</v>
+      </c>
+      <c r="H116" s="38">
+        <v>130000</v>
+      </c>
+      <c r="I116" s="38">
+        <f t="shared" si="15"/>
+        <v>2600000</v>
+      </c>
+      <c r="J116" s="28"/>
+      <c r="K116" s="7"/>
+    </row>
+    <row r="117" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="107">
+        <v>45192</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C117" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B117,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Sạc YOGA 2 cổng C</v>
+      </c>
+      <c r="D117" s="7">
+        <v>1</v>
+      </c>
+      <c r="E117" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B117,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>264191.20633971289</v>
+      </c>
+      <c r="F117" s="69">
+        <f t="shared" si="14"/>
+        <v>264191.20633971289</v>
+      </c>
+      <c r="G117" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B117,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>396286.80950956931</v>
+      </c>
+      <c r="H117" s="38">
+        <v>500000</v>
+      </c>
+      <c r="I117" s="38">
+        <f t="shared" si="15"/>
+        <v>500000</v>
+      </c>
+      <c r="J117" s="28"/>
+      <c r="K117" s="7"/>
+    </row>
+    <row r="118" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="107">
+        <v>45196</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C118" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B118,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Chuột M24</v>
+      </c>
+      <c r="D118" s="7">
+        <v>1</v>
+      </c>
+      <c r="E118" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B118,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>93140.363408874851</v>
+      </c>
+      <c r="F118" s="69">
+        <f t="shared" si="14"/>
+        <v>93140.363408874851</v>
+      </c>
+      <c r="G118" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B118,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>139710.54511331228</v>
+      </c>
+      <c r="H118" s="38">
+        <v>160000</v>
+      </c>
+      <c r="I118" s="38">
+        <f t="shared" si="15"/>
+        <v>160000</v>
+      </c>
+      <c r="J118" s="28"/>
+      <c r="K118" s="7"/>
+    </row>
+    <row r="119" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="107">
+        <v>45196</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B119,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Túi chống sốc màu đen Xiaoxin 14</v>
+      </c>
+      <c r="D119" s="7">
+        <v>1</v>
+      </c>
+      <c r="E119" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B119,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>116217.6633636184</v>
+      </c>
+      <c r="F119" s="69">
+        <f t="shared" si="14"/>
+        <v>116217.6633636184</v>
+      </c>
+      <c r="G119" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B119,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>174326.49504542758</v>
+      </c>
+      <c r="H119" s="38">
+        <v>250000</v>
+      </c>
+      <c r="I119" s="38">
+        <f t="shared" si="15"/>
+        <v>250000</v>
+      </c>
+      <c r="J119" s="28"/>
+      <c r="K119" s="7"/>
+    </row>
+    <row r="120" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="107">
+        <v>45201</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C120" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B120,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Túi chống sốc màu đen Xiaoxin 14</v>
+      </c>
+      <c r="D120" s="7">
+        <v>14</v>
+      </c>
+      <c r="E120" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B120,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>116217.6633636184</v>
+      </c>
+      <c r="F120" s="69">
+        <f t="shared" si="14"/>
+        <v>1627047.2870906575</v>
+      </c>
+      <c r="G120" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B120,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>174326.49504542758</v>
+      </c>
+      <c r="H120" s="38">
+        <v>160000</v>
+      </c>
+      <c r="I120" s="38">
+        <f t="shared" si="15"/>
+        <v>2240000</v>
+      </c>
+      <c r="J120" s="28"/>
+      <c r="K120" s="7"/>
+    </row>
+    <row r="121" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="107">
+        <v>45201</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B121,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Túi chống sốc màu đen Xiaoxin 15.6</v>
+      </c>
+      <c r="D121" s="7">
+        <v>2</v>
+      </c>
+      <c r="E121" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B121,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>108685.984970416</v>
+      </c>
+      <c r="F121" s="69">
+        <f t="shared" si="14"/>
+        <v>217371.969940832</v>
+      </c>
+      <c r="G121" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B121,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>163028.977455624</v>
+      </c>
+      <c r="H121" s="38">
+        <v>160000</v>
+      </c>
+      <c r="I121" s="38">
+        <f t="shared" si="15"/>
+        <v>320000</v>
+      </c>
+      <c r="J121" s="28"/>
+      <c r="K121" s="7"/>
+    </row>
+    <row r="122" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="107">
+        <v>45201</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B122,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Chuột lenovo bluetooth M1</v>
+      </c>
+      <c r="D122" s="7">
+        <v>10</v>
+      </c>
+      <c r="E122" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B122,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>121731.64389041116</v>
+      </c>
+      <c r="F122" s="69">
+        <f t="shared" si="14"/>
+        <v>1217316.4389041115</v>
+      </c>
+      <c r="G122" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B122,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>182597.46583561675</v>
+      </c>
+      <c r="H122" s="38">
+        <v>170000</v>
+      </c>
+      <c r="I122" s="38">
+        <f t="shared" si="15"/>
+        <v>1700000</v>
+      </c>
+      <c r="J122" s="28"/>
+      <c r="K122" s="7"/>
+    </row>
+    <row r="123" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="107">
+        <v>45201</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C123" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B123,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Chuột M24</v>
+      </c>
+      <c r="D123" s="7">
+        <v>10</v>
+      </c>
+      <c r="E123" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B123,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>93140.363408874851</v>
+      </c>
+      <c r="F123" s="69">
+        <f t="shared" si="14"/>
+        <v>931403.63408874848</v>
+      </c>
+      <c r="G123" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B123,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>139710.54511331228</v>
+      </c>
+      <c r="H123" s="38">
+        <v>130000</v>
+      </c>
+      <c r="I123" s="38">
+        <f t="shared" si="15"/>
+        <v>1300000</v>
+      </c>
+      <c r="J123" s="28"/>
+      <c r="K123" s="7"/>
+    </row>
+    <row r="124" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="107">
+        <v>45201</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C124" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B124,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Chuột M24</v>
+      </c>
+      <c r="D124" s="7">
+        <v>1</v>
+      </c>
+      <c r="E124" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B124,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>93140.363408874851</v>
+      </c>
+      <c r="F124" s="69">
+        <f t="shared" si="14"/>
+        <v>93140.363408874851</v>
+      </c>
+      <c r="G124" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B124,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>139710.54511331228</v>
+      </c>
+      <c r="H124" s="38">
+        <v>0</v>
+      </c>
+      <c r="I124" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="28"/>
+      <c r="K124" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="107">
+        <v>45208</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C125" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B125,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Chuột lenovo bluetooth M1</v>
+      </c>
+      <c r="D125" s="7">
+        <v>1</v>
+      </c>
+      <c r="E125" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B125,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>121731.64389041116</v>
+      </c>
+      <c r="F125" s="69">
+        <f t="shared" si="14"/>
+        <v>121731.64389041116</v>
+      </c>
+      <c r="G125" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B125,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>182597.46583561675</v>
+      </c>
+      <c r="H125" s="38">
+        <v>250000</v>
+      </c>
+      <c r="I125" s="38">
+        <f t="shared" si="15"/>
+        <v>250000</v>
+      </c>
+      <c r="J125" s="28"/>
+      <c r="K125" s="7"/>
+    </row>
+    <row r="126" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="107">
+        <v>45212</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C126" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B126,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Loa TS32A</v>
+      </c>
+      <c r="D126" s="7">
+        <v>1</v>
+      </c>
+      <c r="E126" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B126,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>137800</v>
+      </c>
+      <c r="F126" s="69">
+        <f t="shared" si="14"/>
+        <v>137800</v>
+      </c>
+      <c r="G126" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B126,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>206700</v>
+      </c>
+      <c r="H126" s="38">
+        <v>137000</v>
+      </c>
+      <c r="I126" s="38">
+        <f t="shared" si="15"/>
+        <v>137000</v>
+      </c>
+      <c r="J126" s="28"/>
+      <c r="K126" s="7"/>
+    </row>
+    <row r="127" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="107">
+        <v>45213</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C127" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B127,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Túi chống sốc màu đen Xiaoxin 14</v>
+      </c>
+      <c r="D127" s="7">
+        <v>1</v>
+      </c>
+      <c r="E127" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B127,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>116217.6633636184</v>
+      </c>
+      <c r="F127" s="69">
+        <f t="shared" si="14"/>
+        <v>116217.6633636184</v>
+      </c>
+      <c r="G127" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B127,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>174326.49504542758</v>
+      </c>
+      <c r="H127" s="38">
+        <v>200000</v>
+      </c>
+      <c r="I127" s="38">
+        <f t="shared" si="15"/>
+        <v>200000</v>
+      </c>
+      <c r="J127" s="28"/>
+      <c r="K127" s="7"/>
+    </row>
+    <row r="128" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="107">
+        <v>45213</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C128" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B128,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Chuột M24</v>
+      </c>
+      <c r="D128" s="7">
+        <v>1</v>
+      </c>
+      <c r="E128" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B128,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>93140.363408874851</v>
+      </c>
+      <c r="F128" s="69">
+        <f t="shared" si="14"/>
+        <v>93140.363408874851</v>
+      </c>
+      <c r="G128" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B128,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>139710.54511331228</v>
+      </c>
+      <c r="H128" s="38">
+        <v>130000</v>
+      </c>
+      <c r="I128" s="38">
+        <f t="shared" si="15"/>
+        <v>130000</v>
+      </c>
+      <c r="J128" s="28"/>
+      <c r="K128" s="7"/>
+    </row>
+    <row r="129" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="107">
+        <v>45215</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C129" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B129,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Sạc YOGA 2 cổng C</v>
+      </c>
+      <c r="D129" s="7">
+        <v>1</v>
+      </c>
+      <c r="E129" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B129,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>264191.20633971289</v>
+      </c>
+      <c r="F129" s="69">
+        <f t="shared" si="14"/>
+        <v>264191.20633971289</v>
+      </c>
+      <c r="G129" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B129,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>396286.80950956931</v>
+      </c>
+      <c r="H129" s="38">
+        <v>300000</v>
+      </c>
+      <c r="I129" s="38">
+        <f t="shared" si="15"/>
+        <v>300000</v>
+      </c>
+      <c r="J129" s="28"/>
+      <c r="K129" s="7"/>
+    </row>
+    <row r="130" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="107">
+        <v>45215</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B130,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Sạc Thinkplus gen 2 đen new</v>
+      </c>
+      <c r="D130" s="7">
+        <v>1</v>
+      </c>
+      <c r="E130" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B130,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>434800</v>
+      </c>
+      <c r="F130" s="69">
+        <f t="shared" si="14"/>
+        <v>434800</v>
+      </c>
+      <c r="G130" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B130,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>652200</v>
+      </c>
+      <c r="H130" s="38">
+        <v>764000</v>
+      </c>
+      <c r="I130" s="38">
+        <f t="shared" si="15"/>
+        <v>764000</v>
+      </c>
+      <c r="J130" s="28"/>
+      <c r="K130" s="7"/>
+    </row>
+    <row r="131" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="107">
+        <v>45219</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C131" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B131,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Túi chống sốc màu đen Xiaoxin 14</v>
+      </c>
+      <c r="D131" s="7">
+        <v>20</v>
+      </c>
+      <c r="E131" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B131,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>116217.6633636184</v>
+      </c>
+      <c r="F131" s="69">
+        <f t="shared" si="14"/>
+        <v>2324353.2672723681</v>
+      </c>
+      <c r="G131" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B131,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>174326.49504542758</v>
+      </c>
+      <c r="H131" s="38">
+        <v>160000</v>
+      </c>
+      <c r="I131" s="38">
+        <f t="shared" si="15"/>
+        <v>3200000</v>
+      </c>
+      <c r="J131" s="28"/>
+      <c r="K131" s="7"/>
+    </row>
+    <row r="132" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="107">
+        <v>45219</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C132" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B132,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Chuột lenovo bluetooth M1</v>
+      </c>
+      <c r="D132" s="7">
+        <v>5</v>
+      </c>
+      <c r="E132" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B132,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>121731.64389041116</v>
+      </c>
+      <c r="F132" s="69">
+        <f t="shared" si="14"/>
+        <v>608658.21945205575</v>
+      </c>
+      <c r="G132" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B132,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>182597.46583561675</v>
+      </c>
+      <c r="H132" s="38">
+        <v>170000</v>
+      </c>
+      <c r="I132" s="38">
+        <f t="shared" si="15"/>
+        <v>850000</v>
+      </c>
+      <c r="J132" s="28"/>
+      <c r="K132" s="7"/>
+    </row>
+    <row r="133" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="107">
+        <v>45219</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C133" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B133,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Chuột M24</v>
+      </c>
+      <c r="D133" s="7">
+        <v>5</v>
+      </c>
+      <c r="E133" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B133,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>93140.363408874851</v>
+      </c>
+      <c r="F133" s="69">
+        <f t="shared" si="14"/>
+        <v>465701.81704437424</v>
+      </c>
+      <c r="G133" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B133,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>139710.54511331228</v>
+      </c>
+      <c r="H133" s="38">
+        <v>130000</v>
+      </c>
+      <c r="I133" s="38">
+        <f t="shared" si="15"/>
+        <v>650000</v>
+      </c>
+      <c r="J133" s="28"/>
+      <c r="K133" s="7"/>
+    </row>
+    <row r="134" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="110">
+        <v>45219</v>
+      </c>
+      <c r="B134" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="C134" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B134,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Sạc Thinkplus gen 2 đen new</v>
+      </c>
+      <c r="D134" s="93">
+        <v>1</v>
+      </c>
+      <c r="E134" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B134,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>434800</v>
+      </c>
+      <c r="F134" s="69">
+        <f t="shared" si="14"/>
+        <v>434800</v>
+      </c>
+      <c r="G134" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B134,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>652200</v>
+      </c>
+      <c r="H134" s="112">
+        <v>800000</v>
+      </c>
+      <c r="I134" s="38">
+        <f t="shared" si="15"/>
+        <v>800000</v>
+      </c>
+      <c r="J134" s="111"/>
+      <c r="K134" s="93"/>
+    </row>
+    <row r="135" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="110">
+        <v>45219</v>
+      </c>
+      <c r="B135" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="C135" s="113" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B135,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Sạc YOGA</v>
+      </c>
+      <c r="D135" s="93">
+        <v>1</v>
+      </c>
+      <c r="E135" s="114">
+        <f>_xlfn.IFNA(VLOOKUP(B135,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>238082.66611622242</v>
+      </c>
+      <c r="F135" s="115">
+        <f t="shared" si="14"/>
+        <v>238082.66611622242</v>
+      </c>
+      <c r="G135" s="114">
+        <f>_xlfn.IFNA(VLOOKUP(B135,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>357123.99917433364</v>
+      </c>
+      <c r="H135" s="112">
+        <v>500000</v>
+      </c>
+      <c r="I135" s="114">
+        <f t="shared" si="15"/>
+        <v>500000</v>
+      </c>
+      <c r="J135" s="111"/>
+      <c r="K135" s="93"/>
+    </row>
+    <row r="136" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="107">
+        <v>45219</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B136,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Túi chống sốc màu đen Xiaoxin 14</v>
+      </c>
+      <c r="D136" s="7">
+        <v>1</v>
+      </c>
+      <c r="E136" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B136,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>116217.6633636184</v>
+      </c>
+      <c r="F136" s="69">
+        <f t="shared" si="14"/>
+        <v>116217.6633636184</v>
+      </c>
+      <c r="G136" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B136,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>174326.49504542758</v>
+      </c>
+      <c r="H136" s="38">
+        <v>200000</v>
+      </c>
+      <c r="I136" s="38">
+        <f t="shared" si="15"/>
+        <v>200000</v>
+      </c>
+      <c r="J136" s="28"/>
+      <c r="K136" s="7"/>
+    </row>
+    <row r="137" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="107">
+        <v>45220</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" s="28" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B137,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>Chuột thinkpad</v>
+      </c>
+      <c r="D137" s="7">
+        <v>1</v>
+      </c>
+      <c r="E137" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B137,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0),0)</f>
+        <v>230352.8</v>
+      </c>
+      <c r="F137" s="69">
+        <f t="shared" si="14"/>
+        <v>230352.8</v>
+      </c>
+      <c r="G137" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B137,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
+        <v>345529.19999999995</v>
+      </c>
+      <c r="H137" s="38">
+        <v>500000</v>
+      </c>
+      <c r="I137" s="38">
+        <f t="shared" si="15"/>
+        <v>500000</v>
+      </c>
+      <c r="J137" s="28"/>
+      <c r="K137" s="7"/>
+    </row>
+    <row r="138" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="107"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="28"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="38"/>
+      <c r="F138" s="69"/>
+      <c r="G138" s="38"/>
+      <c r="H138" s="38"/>
+      <c r="I138" s="38"/>
+      <c r="J138" s="28"/>
+      <c r="K138" s="7"/>
+    </row>
+    <row r="139" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="107"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="38"/>
+      <c r="F139" s="69"/>
+      <c r="G139" s="38"/>
+      <c r="H139" s="38"/>
+      <c r="I139" s="38"/>
+      <c r="J139" s="28"/>
+      <c r="K139" s="7"/>
+    </row>
+    <row r="140" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="7"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="28">
+        <f>_xlfn.IFNA(VLOOKUP(B140,'Danh mục hàng hóa'!$C$7:$D$35,2,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J140" s="7"/>
+      <c r="K140" s="7"/>
+    </row>
+    <row r="141" spans="1:11" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B114" s="23"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="45">
-        <f>SUM(E6:E113)</f>
-        <v>14609259.073891291</v>
-      </c>
-      <c r="F114" s="45">
-        <f>SUM(F6:F113)</f>
-        <v>25973154.458974227</v>
-      </c>
-      <c r="G114" s="38">
-        <f>_xlfn.IFNA(VLOOKUP(B114,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$33,10,0)*1.5,0)</f>
+      <c r="B141" s="23"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="45">
+        <f>SUM(E6:E133)</f>
+        <v>17680894.685485549</v>
+      </c>
+      <c r="F141" s="45">
+        <f>SUM(F6:F133)</f>
+        <v>37678117.844263084</v>
+      </c>
+      <c r="G141" s="38">
+        <f>_xlfn.IFNA(VLOOKUP(B141,'TỔNG HỢP NHẬP XUẤT TỒN'!$A$6:$J$34,10,0)*1.5,0)</f>
         <v>0</v>
       </c>
-      <c r="H114" s="45"/>
-      <c r="I114" s="45">
-        <f>SUM(I6:I113)</f>
-        <v>41971000</v>
-      </c>
-      <c r="J114" s="23"/>
-      <c r="K114" s="23"/>
+      <c r="H141" s="45"/>
+      <c r="I141" s="45">
+        <f>SUM(I6:I133)</f>
+        <v>58156000</v>
+      </c>
+      <c r="J141" s="23"/>
+      <c r="K141" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:R114" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <autoFilter ref="A5:R141" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <mergeCells count="13">
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="G4:G5"/>
@@ -13027,10 +14132,10 @@
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J5 J114:J1048576" xr:uid="{7F4497E8-B75B-429C-ADBA-8BD1214366C8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J5 J141:J1048576" xr:uid="{7F4497E8-B75B-429C-ADBA-8BD1214366C8}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J113" xr:uid="{A9821A8D-41B3-4C98-8ABB-B62F0CA6DB81}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J139" xr:uid="{A9821A8D-41B3-4C98-8ABB-B62F0CA6DB81}">
       <formula1>$M$10:$M$13</formula1>
     </dataValidation>
   </dataValidations>
@@ -13041,9 +14146,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{86C6C711-48C6-4C6B-B1B6-58EA74195338}">
           <x14:formula1>
-            <xm:f>'Danh mục hàng hóa'!$C$7:$C$39</xm:f>
+            <xm:f>'Danh mục hàng hóa'!$C$7:$C$40</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B113</xm:sqref>
+          <xm:sqref>B4:B139</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13053,12 +14158,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:Q34"/>
+  <dimension ref="A2:R36"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13076,34 +14181,35 @@
     <col min="12" max="13" width="12.140625" style="12" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" style="93" customWidth="1"/>
     <col min="15" max="15" width="29" style="97" customWidth="1"/>
-    <col min="16" max="16" width="23.140625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="22.85546875" style="12" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="12"/>
+    <col min="16" max="16" width="29" style="116" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" style="12" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+    <row r="2" spans="1:18" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-    </row>
-    <row r="3" spans="1:17" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="121" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+    </row>
+    <row r="3" spans="1:18" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="121"/>
+      <c r="B3" s="132"/>
       <c r="C3" s="12" t="s">
         <v>65</v>
       </c>
@@ -13140,53 +14246,54 @@
       <c r="N3" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="48" t="s">
+      <c r="Q3" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" s="48" t="s">
+      <c r="R3" s="48" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="39" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+    <row r="4" spans="1:18" s="39" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="127" t="s">
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="128"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="127" t="s">
+      <c r="G4" s="139"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="128"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="127" t="s">
+      <c r="J4" s="139"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="128"/>
-      <c r="N4" s="129"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="140"/>
       <c r="O4" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="117"/>
+      <c r="Q4" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="Q4" s="49" t="s">
+      <c r="R4" s="49" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="39" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="123"/>
-      <c r="B5" s="125"/>
+    <row r="5" spans="1:18" s="39" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="134"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="31" t="s">
         <v>7</v>
       </c>
@@ -13224,19 +14331,20 @@
         <v>53</v>
       </c>
       <c r="O5" s="96"/>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="118"/>
+      <c r="Q5" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="Q5" s="49" t="s">
+      <c r="R5" s="49" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="34" t="str">
-        <f>VLOOKUP(A6,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A6,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>USB</v>
       </c>
       <c r="C6" s="37">
@@ -13250,11 +14358,11 @@
         <v>225705</v>
       </c>
       <c r="F6" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A6,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A6,'Nhập hàng'!$H$5:$H$27)</f>
         <v>20</v>
       </c>
       <c r="G6" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A6,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A6,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A6,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A6,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>101100</v>
       </c>
       <c r="H6" s="37">
@@ -13262,8 +14370,8 @@
         <v>2022000</v>
       </c>
       <c r="I6" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A6,'Bán hàng'!$D$6:$D$69)</f>
-        <v>7</v>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A6,'Bán hàng'!$D$6:$D$140)</f>
+        <v>14</v>
       </c>
       <c r="J6" s="37">
         <f>IFERROR((C6*D6+F6*G6)/(C6+F6),0)</f>
@@ -13271,11 +14379,11 @@
       </c>
       <c r="K6" s="37">
         <f>I6*J6</f>
-        <v>715178.86363636365</v>
+        <v>1430357.7272727273</v>
       </c>
       <c r="L6" s="37">
         <f>C6+F6-I6</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M6" s="37">
         <f>J6</f>
@@ -13283,24 +14391,26 @@
       </c>
       <c r="N6" s="94">
         <f>L6*M6</f>
-        <v>1532526.1363636362</v>
-      </c>
-      <c r="O6" s="98">
-        <v>4</v>
-      </c>
-      <c r="P6" s="39" t="s">
+        <v>817347.27272727271</v>
+      </c>
+      <c r="O6" s="98"/>
+      <c r="P6" s="119">
+        <f>O6*M6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="Q6" s="49" t="s">
+      <c r="R6" s="49" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="34" t="str">
-        <f>VLOOKUP(A7,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A7,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Chuột M24</v>
       </c>
       <c r="C7" s="37">
@@ -13310,59 +14420,62 @@
         <v>96821.919038737062</v>
       </c>
       <c r="E7" s="37">
-        <f t="shared" ref="E7:E33" si="0">C7*D7</f>
+        <f t="shared" ref="E7:E34" si="0">C7*D7</f>
         <v>7648931.604060228</v>
       </c>
       <c r="F7" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A7,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A7,'Nhập hàng'!$H$5:$H$27)</f>
         <v>63</v>
       </c>
       <c r="G7" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A7,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A7,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A7,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A7,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>88523.809523809527</v>
       </c>
       <c r="H7" s="37">
-        <f t="shared" ref="H7:H33" si="1">F7*G7</f>
+        <f t="shared" ref="H7:H34" si="1">F7*G7</f>
         <v>5577000</v>
       </c>
-      <c r="I7" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A7,'Bán hàng'!$D$6:$D$69)</f>
-        <v>17</v>
-      </c>
+      <c r="I7" s="37"/>
       <c r="J7" s="37">
-        <f t="shared" ref="J7:J33" si="2">IFERROR((C7*D7+F7*G7)/(C7+F7),0)</f>
+        <f t="shared" ref="J7:J34" si="2">IFERROR((C7*D7+F7*G7)/(C7+F7),0)</f>
         <v>93140.363408874851</v>
       </c>
       <c r="K7" s="37">
-        <f t="shared" ref="K7:K33" si="3">I7*J7</f>
-        <v>1583386.1779508726</v>
+        <f t="shared" ref="K7:K34" si="3">I7*J7</f>
+        <v>0</v>
       </c>
       <c r="L7" s="37">
-        <f t="shared" ref="L7:L33" si="4">C7+F7-I7</f>
-        <v>125</v>
+        <f t="shared" ref="L7:L34" si="4">C7+F7-I7</f>
+        <v>142</v>
       </c>
       <c r="M7" s="37">
-        <f t="shared" ref="M7:M33" si="5">J7</f>
+        <f t="shared" ref="M7:M34" si="5">J7</f>
         <v>93140.363408874851</v>
       </c>
       <c r="N7" s="94">
-        <f t="shared" ref="N7:N33" si="6">L7*M7</f>
-        <v>11642545.426109357</v>
-      </c>
-      <c r="O7" s="98"/>
-      <c r="P7" s="39" t="s">
+        <f t="shared" ref="N7:N34" si="6">L7*M7</f>
+        <v>13225931.604060229</v>
+      </c>
+      <c r="O7" s="98">
+        <v>3</v>
+      </c>
+      <c r="P7" s="119">
+        <f t="shared" ref="P7:P34" si="7">O7*M7</f>
+        <v>279421.09022662457</v>
+      </c>
+      <c r="Q7" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="Q7" s="49" t="s">
+      <c r="R7" s="49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="34" t="str">
-        <f>VLOOKUP(A8,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A8,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Chuột IBM</v>
       </c>
       <c r="C8" s="37">
@@ -13376,11 +14489,11 @@
         <v>729256.4654055211</v>
       </c>
       <c r="F8" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A8,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A8,'Nhập hàng'!$H$5:$H$27)</f>
         <v>0</v>
       </c>
       <c r="G8" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A8,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A8,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A8,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A8,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>0</v>
       </c>
       <c r="H8" s="37">
@@ -13388,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A8,'Bán hàng'!$D$6:$D$69)</f>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A8,'Bán hàng'!$D$6:$D$140)</f>
         <v>1</v>
       </c>
       <c r="J8" s="37">
@@ -13411,20 +14524,26 @@
         <f t="shared" si="6"/>
         <v>546942.34905414085</v>
       </c>
-      <c r="O8" s="98"/>
-      <c r="P8" s="39" t="s">
+      <c r="O8" s="98">
+        <v>3</v>
+      </c>
+      <c r="P8" s="119">
+        <f t="shared" si="7"/>
+        <v>546942.34905414085</v>
+      </c>
+      <c r="Q8" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="Q8" s="49" t="s">
+      <c r="R8" s="49" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="34" t="str">
-        <f>VLOOKUP(A9,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A9,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Chuột lenovo bluetooth M1</v>
       </c>
       <c r="C9" s="37">
@@ -13438,11 +14557,11 @@
         <v>2837493.4324383847</v>
       </c>
       <c r="F9" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A9,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A9,'Nhập hàng'!$H$5:$H$27)</f>
         <v>120</v>
       </c>
       <c r="G9" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A9,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A9,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A9,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A9,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>120403.33333333333</v>
       </c>
       <c r="H9" s="37">
@@ -13450,8 +14569,8 @@
         <v>14448400</v>
       </c>
       <c r="I9" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A9,'Bán hàng'!$D$6:$D$69)</f>
-        <v>22</v>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A9,'Bán hàng'!$D$6:$D$140)</f>
+        <v>60</v>
       </c>
       <c r="J9" s="37">
         <f>IFERROR((C9*D9+F9*G9)/(C9+F9),0)</f>
@@ -13459,11 +14578,11 @@
       </c>
       <c r="K9" s="37">
         <f t="shared" si="3"/>
-        <v>2678096.1655890453</v>
+        <v>7303898.6334246695</v>
       </c>
       <c r="L9" s="37">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="M9" s="37">
         <f t="shared" si="5"/>
@@ -13471,22 +14590,28 @@
       </c>
       <c r="N9" s="94">
         <f t="shared" si="6"/>
-        <v>14607797.266849339</v>
-      </c>
-      <c r="O9" s="98"/>
-      <c r="P9" s="39" t="s">
+        <v>9981994.7990137152</v>
+      </c>
+      <c r="O9" s="98">
+        <v>69</v>
+      </c>
+      <c r="P9" s="119">
+        <f t="shared" si="7"/>
+        <v>8399483.4284383692</v>
+      </c>
+      <c r="Q9" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="Q9" s="47" t="s">
+      <c r="R9" s="47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="34" t="str">
-        <f>VLOOKUP(A10,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A10,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>USB C 3in1</v>
       </c>
       <c r="C10" s="37">
@@ -13500,49 +14625,55 @@
         <v>556155</v>
       </c>
       <c r="F10" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A10,'Nhập hàng'!$H$5:$H$22)</f>
-        <v>0</v>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A10,'Nhập hàng'!$H$5:$H$27)</f>
+        <v>20</v>
       </c>
       <c r="G10" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A10,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A10,'Nhập hàng'!$H$5:$H$22),0)</f>
-        <v>0</v>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A10,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A10,'Nhập hàng'!$H$5:$H$27),0)</f>
+        <v>93000</v>
       </c>
       <c r="H10" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1860000</v>
       </c>
       <c r="I10" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A10,'Bán hàng'!$D$6:$D$69)</f>
-        <v>14</v>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A10,'Bán hàng'!$D$6:$D$140)</f>
+        <v>22</v>
       </c>
       <c r="J10" s="37">
         <f t="shared" si="2"/>
-        <v>92692.5</v>
+        <v>92929.038461538468</v>
       </c>
       <c r="K10" s="37">
         <f t="shared" si="3"/>
-        <v>1297695</v>
+        <v>2044438.8461538462</v>
       </c>
       <c r="L10" s="37">
         <f t="shared" si="4"/>
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="M10" s="37">
         <f t="shared" si="5"/>
-        <v>92692.5</v>
+        <v>92929.038461538468</v>
       </c>
       <c r="N10" s="94">
         <f t="shared" si="6"/>
-        <v>-741540</v>
-      </c>
-      <c r="O10" s="98"/>
-    </row>
-    <row r="11" spans="1:17" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>371716.15384615387</v>
+      </c>
+      <c r="O10" s="98">
+        <v>12</v>
+      </c>
+      <c r="P10" s="119">
+        <f t="shared" si="7"/>
+        <v>1115148.4615384615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="34" t="str">
-        <f>VLOOKUP(A11,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A11,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Chuột thinkpad</v>
       </c>
       <c r="C11" s="37">
@@ -13556,11 +14687,11 @@
         <v>1259528</v>
       </c>
       <c r="F11" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A11,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A11,'Nhập hàng'!$H$5:$H$27)</f>
         <v>5</v>
       </c>
       <c r="G11" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A11,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A11,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A11,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A11,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>208800</v>
       </c>
       <c r="H11" s="37">
@@ -13568,8 +14699,8 @@
         <v>1044000</v>
       </c>
       <c r="I11" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A11,'Bán hàng'!$D$6:$D$69)</f>
-        <v>4</v>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A11,'Bán hàng'!$D$6:$D$140)</f>
+        <v>6</v>
       </c>
       <c r="J11" s="37">
         <f t="shared" si="2"/>
@@ -13577,11 +14708,11 @@
       </c>
       <c r="K11" s="37">
         <f t="shared" si="3"/>
-        <v>921411.2</v>
+        <v>1382116.7999999998</v>
       </c>
       <c r="L11" s="37">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M11" s="37">
         <f t="shared" si="5"/>
@@ -13589,16 +14720,22 @@
       </c>
       <c r="N11" s="94">
         <f t="shared" si="6"/>
-        <v>1382116.7999999998</v>
-      </c>
-      <c r="O11" s="98"/>
-    </row>
-    <row r="12" spans="1:17" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>921411.2</v>
+      </c>
+      <c r="O11" s="98">
+        <v>3</v>
+      </c>
+      <c r="P11" s="119">
+        <f t="shared" si="7"/>
+        <v>691058.39999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="34" t="str">
-        <f>VLOOKUP(A12,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A12,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Trải bàn xiaomi</v>
       </c>
       <c r="C12" s="37">
@@ -13612,11 +14749,11 @@
         <v>1234858.1818181816</v>
       </c>
       <c r="F12" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A12,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A12,'Nhập hàng'!$H$5:$H$27)</f>
         <v>0</v>
       </c>
       <c r="G12" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A12,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A12,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A12,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A12,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>0</v>
       </c>
       <c r="H12" s="37">
@@ -13624,8 +14761,8 @@
         <v>0</v>
       </c>
       <c r="I12" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A12,'Bán hàng'!$D$6:$D$69)</f>
-        <v>0</v>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A12,'Bán hàng'!$D$6:$D$140)</f>
+        <v>2</v>
       </c>
       <c r="J12" s="37">
         <f t="shared" si="2"/>
@@ -13633,11 +14770,11 @@
       </c>
       <c r="K12" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>246971.63636363632</v>
       </c>
       <c r="L12" s="37">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M12" s="37">
         <f t="shared" si="5"/>
@@ -13645,16 +14782,22 @@
       </c>
       <c r="N12" s="94">
         <f t="shared" si="6"/>
-        <v>1234858.1818181816</v>
-      </c>
-      <c r="O12" s="98"/>
-    </row>
-    <row r="13" spans="1:17" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>987886.5454545453</v>
+      </c>
+      <c r="O12" s="98">
+        <v>7</v>
+      </c>
+      <c r="P12" s="119">
+        <f t="shared" si="7"/>
+        <v>864400.72727272718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="34" t="str">
-        <f>VLOOKUP(A13,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A13,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Sạc YOGA</v>
       </c>
       <c r="C13" s="37">
@@ -13668,11 +14811,11 @@
         <v>952330.66446488968</v>
       </c>
       <c r="F13" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A13,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A13,'Nhập hàng'!$H$5:$H$27)</f>
         <v>0</v>
       </c>
       <c r="G13" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A13,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A13,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A13,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A13,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>0</v>
       </c>
       <c r="H13" s="37">
@@ -13680,8 +14823,8 @@
         <v>0</v>
       </c>
       <c r="I13" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A13,'Bán hàng'!$D$6:$D$69)</f>
-        <v>0</v>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A13,'Bán hàng'!$D$6:$D$140)</f>
+        <v>3</v>
       </c>
       <c r="J13" s="37">
         <f t="shared" si="2"/>
@@ -13689,11 +14832,11 @@
       </c>
       <c r="K13" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>714247.99834866729</v>
       </c>
       <c r="L13" s="37">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M13" s="37">
         <f t="shared" si="5"/>
@@ -13701,16 +14844,20 @@
       </c>
       <c r="N13" s="94">
         <f t="shared" si="6"/>
-        <v>952330.66446488968</v>
+        <v>238082.66611622242</v>
       </c>
       <c r="O13" s="98"/>
-    </row>
-    <row r="14" spans="1:17" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="34" t="str">
-        <f>VLOOKUP(A14,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A14,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Loa TS32A</v>
       </c>
       <c r="C14" s="37">
@@ -13724,11 +14871,11 @@
         <v>826800</v>
       </c>
       <c r="F14" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A14,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A14,'Nhập hàng'!$H$5:$H$27)</f>
         <v>0</v>
       </c>
       <c r="G14" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A14,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A14,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A14,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A14,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>0</v>
       </c>
       <c r="H14" s="37">
@@ -13736,8 +14883,8 @@
         <v>0</v>
       </c>
       <c r="I14" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A14,'Bán hàng'!$D$6:$D$69)</f>
-        <v>2</v>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A14,'Bán hàng'!$D$6:$D$140)</f>
+        <v>3</v>
       </c>
       <c r="J14" s="37">
         <f t="shared" si="2"/>
@@ -13745,11 +14892,11 @@
       </c>
       <c r="K14" s="37">
         <f t="shared" si="3"/>
-        <v>275600</v>
+        <v>413400</v>
       </c>
       <c r="L14" s="37">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14" s="37">
         <f t="shared" si="5"/>
@@ -13757,16 +14904,22 @@
       </c>
       <c r="N14" s="94">
         <f t="shared" si="6"/>
-        <v>551200</v>
-      </c>
-      <c r="O14" s="98"/>
-    </row>
-    <row r="15" spans="1:17" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>413400</v>
+      </c>
+      <c r="O14" s="98">
+        <v>3</v>
+      </c>
+      <c r="P14" s="119">
+        <f t="shared" si="7"/>
+        <v>413400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="34" t="str">
-        <f>VLOOKUP(A15,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A15,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Sạc gen 1 có hộp</v>
       </c>
       <c r="C15" s="37">
@@ -13780,11 +14933,11 @@
         <v>498254</v>
       </c>
       <c r="F15" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A15,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A15,'Nhập hàng'!$H$5:$H$27)</f>
         <v>0</v>
       </c>
       <c r="G15" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A15,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A15,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A15,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A15,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>0</v>
       </c>
       <c r="H15" s="37">
@@ -13792,7 +14945,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A15,'Bán hàng'!$D$6:$D$69)</f>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A15,'Bán hàng'!$D$6:$D$140)</f>
         <v>0</v>
       </c>
       <c r="J15" s="37">
@@ -13816,13 +14969,17 @@
         <v>498254</v>
       </c>
       <c r="O15" s="98"/>
-    </row>
-    <row r="16" spans="1:17" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="34" t="str">
-        <f>VLOOKUP(A16,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A16,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Sạc lenovo to type C</v>
       </c>
       <c r="C16" s="37">
@@ -13836,11 +14993,11 @@
         <v>690450</v>
       </c>
       <c r="F16" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A16,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A16,'Nhập hàng'!$H$5:$H$27)</f>
         <v>0</v>
       </c>
       <c r="G16" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A16,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A16,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A16,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A16,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>0</v>
       </c>
       <c r="H16" s="37">
@@ -13848,7 +15005,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A16,'Bán hàng'!$D$6:$D$69)</f>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A16,'Bán hàng'!$D$6:$D$140)</f>
         <v>0</v>
       </c>
       <c r="J16" s="37">
@@ -13871,16 +15028,18 @@
         <f t="shared" si="6"/>
         <v>690450</v>
       </c>
-      <c r="O16" s="98" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="98"/>
+      <c r="P16" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="34" t="str">
-        <f>VLOOKUP(A17,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A17,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Loa K3 Pro</v>
       </c>
       <c r="C17" s="37">
@@ -13894,11 +15053,11 @@
         <v>5048820.3895833334</v>
       </c>
       <c r="F17" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A17,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A17,'Nhập hàng'!$H$5:$H$27)</f>
         <v>0</v>
       </c>
       <c r="G17" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A17,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A17,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A17,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A17,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>0</v>
       </c>
       <c r="H17" s="37">
@@ -13906,8 +15065,8 @@
         <v>0</v>
       </c>
       <c r="I17" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A17,'Bán hàng'!$D$6:$D$69)</f>
-        <v>6</v>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A17,'Bán hàng'!$D$6:$D$140)</f>
+        <v>9</v>
       </c>
       <c r="J17" s="37">
         <f t="shared" si="2"/>
@@ -13915,11 +15074,11 @@
       </c>
       <c r="K17" s="37">
         <f t="shared" si="3"/>
-        <v>644530.26249999995</v>
+        <v>966795.39375000005</v>
       </c>
       <c r="L17" s="37">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M17" s="37">
         <f t="shared" si="5"/>
@@ -13927,18 +15086,22 @@
       </c>
       <c r="N17" s="94">
         <f t="shared" si="6"/>
-        <v>4404290.1270833332</v>
+        <v>4082024.9958333336</v>
       </c>
       <c r="O17" s="98">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="P17" s="119">
+        <f t="shared" si="7"/>
+        <v>2148434.2083333335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>135</v>
       </c>
       <c r="B18" s="34" t="str">
-        <f>VLOOKUP(A18,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A18,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Sạc Thinkplus gen 2 có hộp trắng</v>
       </c>
       <c r="C18" s="37">
@@ -13952,11 +15115,11 @@
         <v>0</v>
       </c>
       <c r="F18" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A18,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A18,'Nhập hàng'!$H$5:$H$27)</f>
         <v>0</v>
       </c>
       <c r="G18" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A18,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A18,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A18,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A18,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>0</v>
       </c>
       <c r="H18" s="37">
@@ -13964,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A18,'Bán hàng'!$D$6:$D$69)</f>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A18,'Bán hàng'!$D$6:$D$140)</f>
         <v>0</v>
       </c>
       <c r="J18" s="37">
@@ -13988,13 +15151,17 @@
         <v>0</v>
       </c>
       <c r="O18" s="98"/>
-    </row>
-    <row r="19" spans="1:15" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="34" t="str">
-        <f>VLOOKUP(A19,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A19,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Sạc Thinkplus gen 2 k hộp</v>
       </c>
       <c r="C19" s="37">
@@ -14008,11 +15175,11 @@
         <v>1791080.8499999999</v>
       </c>
       <c r="F19" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A19,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A19,'Nhập hàng'!$H$5:$H$27)</f>
         <v>0</v>
       </c>
       <c r="G19" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A19,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A19,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A19,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A19,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>0</v>
       </c>
       <c r="H19" s="37">
@@ -14020,7 +15187,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A19,'Bán hàng'!$D$6:$D$69)</f>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A19,'Bán hàng'!$D$6:$D$140)</f>
         <v>5</v>
       </c>
       <c r="J19" s="37">
@@ -14043,16 +15210,18 @@
         <f t="shared" si="6"/>
         <v>298513.47499999998</v>
       </c>
-      <c r="O19" s="98" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="98"/>
+      <c r="P19" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="34" t="str">
-        <f>VLOOKUP(A20,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A20,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Dây type C to slim</v>
       </c>
       <c r="C20" s="37">
@@ -14066,11 +15235,11 @@
         <v>657185.4</v>
       </c>
       <c r="F20" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A20,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A20,'Nhập hàng'!$H$5:$H$27)</f>
         <v>0</v>
       </c>
       <c r="G20" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A20,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A20,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A20,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A20,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>0</v>
       </c>
       <c r="H20" s="37">
@@ -14078,7 +15247,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A20,'Bán hàng'!$D$6:$D$69)</f>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A20,'Bán hàng'!$D$6:$D$140)</f>
         <v>0</v>
       </c>
       <c r="J20" s="37">
@@ -14102,13 +15271,17 @@
         <v>657185.4</v>
       </c>
       <c r="O20" s="98"/>
-    </row>
-    <row r="21" spans="1:15" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B21" s="34" t="str">
-        <f>VLOOKUP(A21,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A21,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Sạc lenovo to type C bóc máy</v>
       </c>
       <c r="C21" s="37">
@@ -14122,49 +15295,53 @@
         <v>402080</v>
       </c>
       <c r="F21" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A21,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A21,'Nhập hàng'!$H$5:$H$27)</f>
         <v>0</v>
       </c>
       <c r="G21" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A21,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A21,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A21,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A21,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>0</v>
       </c>
       <c r="H21" s="37">
-        <f t="shared" ref="H21" si="7">F21*G21</f>
+        <f t="shared" ref="H21" si="8">F21*G21</f>
         <v>0</v>
       </c>
       <c r="I21" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A21,'Bán hàng'!$D$6:$D$69)</f>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A21,'Bán hàng'!$D$6:$D$140)</f>
         <v>0</v>
       </c>
       <c r="J21" s="37">
-        <f t="shared" ref="J21" si="8">IFERROR((C21*D21+F21*G21)/(C21+F21),0)</f>
+        <f t="shared" ref="J21" si="9">IFERROR((C21*D21+F21*G21)/(C21+F21),0)</f>
         <v>201040</v>
       </c>
       <c r="K21" s="37">
-        <f t="shared" ref="K21" si="9">I21*J21</f>
+        <f t="shared" ref="K21" si="10">I21*J21</f>
         <v>0</v>
       </c>
       <c r="L21" s="37">
-        <f t="shared" ref="L21" si="10">C21+F21-I21</f>
+        <f t="shared" ref="L21" si="11">C21+F21-I21</f>
         <v>2</v>
       </c>
       <c r="M21" s="37">
-        <f t="shared" ref="M21" si="11">J21</f>
+        <f t="shared" ref="M21" si="12">J21</f>
         <v>201040</v>
       </c>
       <c r="N21" s="94">
-        <f t="shared" ref="N21" si="12">L21*M21</f>
+        <f t="shared" ref="N21" si="13">L21*M21</f>
         <v>402080</v>
       </c>
       <c r="O21" s="98"/>
-    </row>
-    <row r="22" spans="1:15" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>143</v>
       </c>
       <c r="B22" s="34" t="str">
-        <f>VLOOKUP(A22,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A22,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Sạc Thinkplus trắng gen 2 new</v>
       </c>
       <c r="C22" s="37">
@@ -14178,11 +15355,11 @@
         <v>0</v>
       </c>
       <c r="F22" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A22,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A22,'Nhập hàng'!$H$5:$H$27)</f>
         <v>0</v>
       </c>
       <c r="G22" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A22,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A22,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A22,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A22,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="37">
@@ -14190,37 +15367,41 @@
         <v>0</v>
       </c>
       <c r="I22" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A22,'Bán hàng'!$D$6:$D$69)</f>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A22,'Bán hàng'!$D$6:$D$140)</f>
         <v>0</v>
       </c>
       <c r="J22" s="37">
-        <f t="shared" ref="J22:J28" si="13">IFERROR((C22*D22+F22*G22)/(C22+F22),0)</f>
+        <f t="shared" ref="J22:J28" si="14">IFERROR((C22*D22+F22*G22)/(C22+F22),0)</f>
         <v>0</v>
       </c>
       <c r="K22" s="37">
-        <f t="shared" ref="K22:K28" si="14">I22*J22</f>
+        <f t="shared" ref="K22:K28" si="15">I22*J22</f>
         <v>0</v>
       </c>
       <c r="L22" s="37">
-        <f t="shared" ref="L22:L28" si="15">C22+F22-I22</f>
+        <f t="shared" ref="L22:L28" si="16">C22+F22-I22</f>
         <v>0</v>
       </c>
       <c r="M22" s="37">
-        <f t="shared" ref="M22:M28" si="16">J22</f>
+        <f t="shared" ref="M22:M28" si="17">J22</f>
         <v>0</v>
       </c>
       <c r="N22" s="94">
-        <f t="shared" ref="N22:N28" si="17">L22*M22</f>
+        <f t="shared" ref="N22:N28" si="18">L22*M22</f>
         <v>0</v>
       </c>
       <c r="O22" s="98"/>
-    </row>
-    <row r="23" spans="1:15" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>139</v>
       </c>
       <c r="B23" s="34" t="str">
-        <f>VLOOKUP(A23,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A23,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Sạc Thinkplus gen 2 đen new</v>
       </c>
       <c r="C23" s="37">
@@ -14234,11 +15415,11 @@
         <v>937400</v>
       </c>
       <c r="F23" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A23,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A23,'Nhập hàng'!$H$5:$H$27)</f>
         <v>5</v>
       </c>
       <c r="G23" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A23,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A23,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A23,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A23,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>421240</v>
       </c>
       <c r="H23" s="37">
@@ -14246,37 +15427,43 @@
         <v>2106200</v>
       </c>
       <c r="I23" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A23,'Bán hàng'!$D$6:$D$69)</f>
-        <v>1</v>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A23,'Bán hàng'!$D$6:$D$140)</f>
+        <v>3</v>
       </c>
       <c r="J23" s="37">
-        <f t="shared" si="13"/>
-        <v>434800</v>
-      </c>
-      <c r="K23" s="37">
         <f t="shared" si="14"/>
         <v>434800</v>
       </c>
+      <c r="K23" s="37">
+        <f t="shared" si="15"/>
+        <v>1304400</v>
+      </c>
       <c r="L23" s="37">
-        <f t="shared" si="15"/>
-        <v>6</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="M23" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>434800</v>
       </c>
       <c r="N23" s="94">
-        <f t="shared" si="17"/>
-        <v>2608800</v>
-      </c>
-      <c r="O23" s="98"/>
-    </row>
-    <row r="24" spans="1:15" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>1739200</v>
+      </c>
+      <c r="O23" s="98">
+        <v>3</v>
+      </c>
+      <c r="P23" s="119">
+        <f t="shared" si="7"/>
+        <v>1304400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>140</v>
       </c>
       <c r="B24" s="34" t="str">
-        <f>VLOOKUP(A24,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A24,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Sạc Thinkplus gen 2 Pro đen new</v>
       </c>
       <c r="C24" s="37">
@@ -14290,11 +15477,11 @@
         <v>612000</v>
       </c>
       <c r="F24" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A24,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A24,'Nhập hàng'!$H$5:$H$27)</f>
         <v>0</v>
       </c>
       <c r="G24" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A24,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A24,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A24,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A24,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>0</v>
       </c>
       <c r="H24" s="37">
@@ -14302,37 +15489,41 @@
         <v>0</v>
       </c>
       <c r="I24" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A24,'Bán hàng'!$D$6:$D$69)</f>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A24,'Bán hàng'!$D$6:$D$140)</f>
         <v>0</v>
       </c>
       <c r="J24" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>612000</v>
       </c>
       <c r="K24" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L24" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="M24" s="37">
-        <f t="shared" si="16"/>
-        <v>612000</v>
-      </c>
-      <c r="N24" s="94">
         <f t="shared" si="17"/>
         <v>612000</v>
       </c>
+      <c r="N24" s="94">
+        <f t="shared" si="18"/>
+        <v>612000</v>
+      </c>
       <c r="O24" s="98"/>
-    </row>
-    <row r="25" spans="1:15" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>136</v>
       </c>
       <c r="B25" s="34" t="str">
-        <f>VLOOKUP(A25,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A25,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 14</v>
       </c>
       <c r="C25" s="37">
@@ -14346,49 +15537,55 @@
         <v>1076836.9898163143</v>
       </c>
       <c r="F25" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A25,'Nhập hàng'!$H$5:$H$22)</f>
-        <v>50</v>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A25,'Nhập hàng'!$H$5:$H$27)</f>
+        <v>95</v>
       </c>
       <c r="G25" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A25,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A25,'Nhập hàng'!$H$5:$H$22),0)</f>
-        <v>105140</v>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A25,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A25,'Nhập hàng'!$H$5:$H$27),0)</f>
+        <v>115892.63157894737</v>
       </c>
       <c r="H25" s="37">
         <f t="shared" si="1"/>
-        <v>5257000</v>
+        <v>11009800</v>
       </c>
       <c r="I25" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A25,'Bán hàng'!$D$6:$D$69)</f>
-        <v>6</v>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A25,'Bán hàng'!$D$6:$D$140)</f>
+        <v>79</v>
       </c>
       <c r="J25" s="37">
-        <f t="shared" si="13"/>
-        <v>107353.16931892058</v>
+        <f t="shared" si="14"/>
+        <v>116217.6633636184</v>
       </c>
       <c r="K25" s="37">
-        <f t="shared" si="14"/>
-        <v>644119.0159135235</v>
+        <f t="shared" si="15"/>
+        <v>9181195.4057258535</v>
       </c>
       <c r="L25" s="37">
-        <f t="shared" si="15"/>
-        <v>53</v>
+        <f t="shared" si="16"/>
+        <v>25</v>
       </c>
       <c r="M25" s="37">
-        <f t="shared" si="16"/>
-        <v>107353.16931892058</v>
+        <f t="shared" si="17"/>
+        <v>116217.6633636184</v>
       </c>
       <c r="N25" s="94">
-        <f t="shared" si="17"/>
-        <v>5689717.9739027908</v>
-      </c>
-      <c r="O25" s="98"/>
-    </row>
-    <row r="26" spans="1:15" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>2905441.5840904601</v>
+      </c>
+      <c r="O25" s="98">
+        <v>42</v>
+      </c>
+      <c r="P25" s="119">
+        <f t="shared" si="7"/>
+        <v>4881141.8612719728</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>146</v>
       </c>
       <c r="B26" s="34" t="str">
-        <f>VLOOKUP(A26,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A26,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Sạc gan 1 đen new</v>
       </c>
       <c r="C26" s="37">
@@ -14402,49 +15599,55 @@
         <v>1819544.8</v>
       </c>
       <c r="F26" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A26,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A26,'Nhập hàng'!$H$5:$H$27)</f>
         <v>0</v>
       </c>
       <c r="G26" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A26,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A26,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A26,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A26,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>0</v>
       </c>
       <c r="H26" s="37">
-        <f t="shared" ref="H26" si="18">F26*G26</f>
+        <f t="shared" ref="H26" si="19">F26*G26</f>
         <v>0</v>
       </c>
       <c r="I26" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A26,'Bán hàng'!$D$6:$D$69)</f>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A26,'Bán hàng'!$D$6:$D$140)</f>
         <v>1</v>
       </c>
       <c r="J26" s="37">
-        <f t="shared" ref="J26" si="19">IFERROR((C26*D26+F26*G26)/(C26+F26),0)</f>
+        <f t="shared" ref="J26" si="20">IFERROR((C26*D26+F26*G26)/(C26+F26),0)</f>
         <v>454886.2</v>
       </c>
       <c r="K26" s="37">
-        <f t="shared" ref="K26" si="20">I26*J26</f>
+        <f t="shared" ref="K26" si="21">I26*J26</f>
         <v>454886.2</v>
       </c>
       <c r="L26" s="37">
-        <f t="shared" ref="L26" si="21">C26+F26-I26</f>
+        <f t="shared" ref="L26" si="22">C26+F26-I26</f>
         <v>3</v>
       </c>
       <c r="M26" s="37">
-        <f t="shared" ref="M26" si="22">J26</f>
+        <f t="shared" ref="M26" si="23">J26</f>
         <v>454886.2</v>
       </c>
       <c r="N26" s="94">
-        <f t="shared" ref="N26" si="23">L26*M26</f>
+        <f t="shared" ref="N26" si="24">L26*M26</f>
         <v>1364658.6</v>
       </c>
-      <c r="O26" s="98"/>
-    </row>
-    <row r="27" spans="1:15" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="98">
+        <v>2</v>
+      </c>
+      <c r="P26" s="119">
+        <f t="shared" si="7"/>
+        <v>909772.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>148</v>
       </c>
       <c r="B27" s="34" t="str">
-        <f>VLOOKUP(A27,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A27,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>USB C 6in1</v>
       </c>
       <c r="C27" s="37">
@@ -14458,49 +15661,55 @@
         <v>425691.33333333331</v>
       </c>
       <c r="F27" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A27,'Nhập hàng'!$H$5:$H$22)</f>
-        <v>0</v>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A27,'Nhập hàng'!$H$5:$H$27)</f>
+        <v>10</v>
       </c>
       <c r="G27" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A27,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A27,'Nhập hàng'!$H$5:$H$22),0)</f>
-        <v>0</v>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A27,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A27,'Nhập hàng'!$H$5:$H$27),0)</f>
+        <v>213000</v>
       </c>
       <c r="H27" s="37">
-        <f t="shared" ref="H27" si="24">F27*G27</f>
-        <v>0</v>
+        <f t="shared" ref="H27" si="25">F27*G27</f>
+        <v>2130000</v>
       </c>
       <c r="I27" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A27,'Bán hàng'!$D$6:$D$69)</f>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A27,'Bán hàng'!$D$6:$D$140)</f>
         <v>4</v>
       </c>
       <c r="J27" s="37">
-        <f t="shared" ref="J27" si="25">IFERROR((C27*D27+F27*G27)/(C27+F27),0)</f>
-        <v>212845.66666666666</v>
+        <f t="shared" ref="J27" si="26">IFERROR((C27*D27+F27*G27)/(C27+F27),0)</f>
+        <v>212974.27777777778</v>
       </c>
       <c r="K27" s="37">
-        <f t="shared" ref="K27" si="26">I27*J27</f>
-        <v>851382.66666666663</v>
+        <f t="shared" ref="K27" si="27">I27*J27</f>
+        <v>851897.11111111112</v>
       </c>
       <c r="L27" s="37">
-        <f t="shared" ref="L27" si="27">C27+F27-I27</f>
-        <v>-2</v>
+        <f t="shared" ref="L27" si="28">C27+F27-I27</f>
+        <v>8</v>
       </c>
       <c r="M27" s="37">
-        <f t="shared" ref="M27" si="28">J27</f>
-        <v>212845.66666666666</v>
+        <f t="shared" ref="M27" si="29">J27</f>
+        <v>212974.27777777778</v>
       </c>
       <c r="N27" s="94">
-        <f t="shared" ref="N27" si="29">L27*M27</f>
-        <v>-425691.33333333331</v>
-      </c>
-      <c r="O27" s="98"/>
-    </row>
-    <row r="28" spans="1:15" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N27" si="30">L27*M27</f>
+        <v>1703794.2222222222</v>
+      </c>
+      <c r="O27" s="98">
+        <v>7</v>
+      </c>
+      <c r="P27" s="119">
+        <f t="shared" si="7"/>
+        <v>1490819.9444444445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>137</v>
       </c>
       <c r="B28" s="34" t="str">
-        <f>VLOOKUP(A28,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A28,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Balo thinkbook trắng</v>
       </c>
       <c r="C28" s="37">
@@ -14514,11 +15723,11 @@
         <v>0</v>
       </c>
       <c r="F28" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A28,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A28,'Nhập hàng'!$H$5:$H$27)</f>
         <v>0</v>
       </c>
       <c r="G28" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A28,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A28,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A28,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A28,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>0</v>
       </c>
       <c r="H28" s="37">
@@ -14526,37 +15735,41 @@
         <v>0</v>
       </c>
       <c r="I28" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A28,'Bán hàng'!$D$6:$D$69)</f>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A28,'Bán hàng'!$D$6:$D$140)</f>
         <v>0</v>
       </c>
       <c r="J28" s="37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="37">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L28" s="37">
+      <c r="K28" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="M28" s="37">
+      <c r="L28" s="37">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N28" s="94">
+      <c r="M28" s="37">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
+      <c r="N28" s="94">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="O28" s="98"/>
-    </row>
-    <row r="29" spans="1:15" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B29" s="34" t="str">
-        <f>VLOOKUP(A29,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A29,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Túi chống sốc màu đen Xiaoxin 15.6</v>
       </c>
       <c r="C29" s="37">
@@ -14570,49 +15783,55 @@
         <v>361533.56414206431</v>
       </c>
       <c r="F29" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A29,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A29,'Nhập hàng'!$H$5:$H$27)</f>
         <v>26</v>
       </c>
       <c r="G29" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A29,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A29,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A29,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A29,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>107321.53846153847</v>
       </c>
       <c r="H29" s="37">
-        <f t="shared" ref="H29" si="30">F29*G29</f>
+        <f t="shared" ref="H29" si="31">F29*G29</f>
         <v>2790360</v>
       </c>
       <c r="I29" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A29,'Bán hàng'!$D$6:$D$69)</f>
-        <v>2</v>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A29,'Bán hàng'!$D$6:$D$140)</f>
+        <v>11</v>
       </c>
       <c r="J29" s="37">
-        <f t="shared" ref="J29" si="31">IFERROR((C29*D29+F29*G29)/(C29+F29),0)</f>
+        <f t="shared" ref="J29" si="32">IFERROR((C29*D29+F29*G29)/(C29+F29),0)</f>
         <v>108685.984970416</v>
       </c>
       <c r="K29" s="37">
-        <f t="shared" ref="K29" si="32">I29*J29</f>
-        <v>217371.969940832</v>
+        <f t="shared" ref="K29" si="33">I29*J29</f>
+        <v>1195545.8346745761</v>
       </c>
       <c r="L29" s="37">
-        <f t="shared" ref="L29" si="33">C29+F29-I29</f>
-        <v>27</v>
+        <f t="shared" ref="L29" si="34">C29+F29-I29</f>
+        <v>18</v>
       </c>
       <c r="M29" s="37">
-        <f t="shared" ref="M29" si="34">J29</f>
+        <f t="shared" ref="M29" si="35">J29</f>
         <v>108685.984970416</v>
       </c>
       <c r="N29" s="94">
-        <f t="shared" ref="N29" si="35">L29*M29</f>
-        <v>2934521.5942012318</v>
-      </c>
-      <c r="O29" s="98"/>
-    </row>
-    <row r="30" spans="1:15" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N29" si="36">L29*M29</f>
+        <v>1956347.7294674879</v>
+      </c>
+      <c r="O29" s="98">
+        <v>15</v>
+      </c>
+      <c r="P29" s="119">
+        <f t="shared" si="7"/>
+        <v>1630289.7745562401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>153</v>
       </c>
       <c r="B30" s="34" t="str">
-        <f>VLOOKUP(A30,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A30,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Sạc YOGA 2 cổng C</v>
       </c>
       <c r="C30" s="37">
@@ -14626,49 +15845,55 @@
         <v>284609.30143540667</v>
       </c>
       <c r="F30" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A30,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A30,'Nhập hàng'!$H$5:$H$27)</f>
         <v>15</v>
       </c>
       <c r="G30" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A30,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A30,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A30,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A30,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>262830</v>
       </c>
       <c r="H30" s="37">
-        <f t="shared" ref="H30" si="36">F30*G30</f>
+        <f t="shared" ref="H30" si="37">F30*G30</f>
         <v>3942450</v>
       </c>
       <c r="I30" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A30,'Bán hàng'!$D$6:$D$69)</f>
-        <v>0</v>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A30,'Bán hàng'!$D$6:$D$140)</f>
+        <v>4</v>
       </c>
       <c r="J30" s="37">
-        <f t="shared" ref="J30" si="37">IFERROR((C30*D30+F30*G30)/(C30+F30),0)</f>
+        <f t="shared" ref="J30" si="38">IFERROR((C30*D30+F30*G30)/(C30+F30),0)</f>
         <v>264191.20633971289</v>
       </c>
       <c r="K30" s="37">
-        <f t="shared" ref="K30" si="38">I30*J30</f>
-        <v>0</v>
+        <f t="shared" ref="K30" si="39">I30*J30</f>
+        <v>1056764.8253588516</v>
       </c>
       <c r="L30" s="37">
-        <f t="shared" ref="L30" si="39">C30+F30-I30</f>
-        <v>16</v>
+        <f t="shared" ref="L30" si="40">C30+F30-I30</f>
+        <v>12</v>
       </c>
       <c r="M30" s="37">
-        <f t="shared" ref="M30" si="40">J30</f>
+        <f t="shared" ref="M30" si="41">J30</f>
         <v>264191.20633971289</v>
       </c>
       <c r="N30" s="94">
-        <f t="shared" ref="N30" si="41">L30*M30</f>
-        <v>4227059.3014354063</v>
-      </c>
-      <c r="O30" s="98"/>
-    </row>
-    <row r="31" spans="1:15" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N30" si="42">L30*M30</f>
+        <v>3170294.4760765545</v>
+      </c>
+      <c r="O30" s="98">
+        <v>12</v>
+      </c>
+      <c r="P30" s="119">
+        <f t="shared" si="7"/>
+        <v>3170294.4760765545</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>151</v>
       </c>
       <c r="B31" s="34" t="str">
-        <f>VLOOKUP(A31,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A31,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Chuột Thinklife</v>
       </c>
       <c r="C31" s="37">
@@ -14682,49 +15907,53 @@
         <v>936838.95055821375</v>
       </c>
       <c r="F31" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A31,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A31,'Nhập hàng'!$H$5:$H$27)</f>
         <v>0</v>
       </c>
       <c r="G31" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A31,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A31,'Nhập hàng'!$H$5:$H$22),0)</f>
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A31,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A31,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>0</v>
       </c>
       <c r="H31" s="37">
-        <f t="shared" ref="H31" si="42">F31*G31</f>
+        <f t="shared" ref="H31:H33" si="43">F31*G31</f>
         <v>0</v>
       </c>
       <c r="I31" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A31,'Bán hàng'!$D$6:$D$69)</f>
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A31,'Bán hàng'!$D$6:$D$140)</f>
         <v>0</v>
       </c>
       <c r="J31" s="37">
-        <f t="shared" ref="J31" si="43">IFERROR((C31*D31+F31*G31)/(C31+F31),0)</f>
+        <f t="shared" ref="J31" si="44">IFERROR((C31*D31+F31*G31)/(C31+F31),0)</f>
         <v>312279.65018607123</v>
       </c>
       <c r="K31" s="37">
-        <f t="shared" ref="K31" si="44">I31*J31</f>
+        <f t="shared" ref="K31" si="45">I31*J31</f>
         <v>0</v>
       </c>
       <c r="L31" s="37">
-        <f t="shared" ref="L31" si="45">C31+F31-I31</f>
+        <f t="shared" ref="L31" si="46">C31+F31-I31</f>
         <v>3</v>
       </c>
       <c r="M31" s="37">
-        <f t="shared" ref="M31" si="46">J31</f>
+        <f t="shared" ref="M31" si="47">J31</f>
         <v>312279.65018607123</v>
       </c>
       <c r="N31" s="94">
-        <f t="shared" ref="N31" si="47">L31*M31</f>
+        <f t="shared" ref="N31" si="48">L31*M31</f>
         <v>936838.95055821375</v>
       </c>
       <c r="O31" s="98"/>
-    </row>
-    <row r="32" spans="1:15" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P31" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B32" s="34" t="str">
-        <f>VLOOKUP(A32,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+        <f>VLOOKUP(A32,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>USB 2 đầu 64GB</v>
       </c>
       <c r="C32" s="37">
@@ -14736,144 +15965,225 @@
         <v>0</v>
       </c>
       <c r="F32" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A32,'Nhập hàng'!$H$5:$H$22)</f>
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A32,'Nhập hàng'!$H$5:$H$27)</f>
+        <v>20</v>
+      </c>
+      <c r="G32" s="37">
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A32,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A32,'Nhập hàng'!$H$5:$H$27),0)</f>
+        <v>111000</v>
+      </c>
+      <c r="H32" s="37">
+        <f t="shared" si="43"/>
+        <v>2220000</v>
+      </c>
+      <c r="I32" s="37">
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A32,'Bán hàng'!$D$6:$D$140)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A32,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A32,'Nhập hàng'!$H$5:$H$22),0)</f>
+      <c r="J32" s="37">
+        <f t="shared" ref="J32:J33" si="49">IFERROR((C32*D32+F32*G32)/(C32+F32),0)</f>
+        <v>111000</v>
+      </c>
+      <c r="K32" s="37">
+        <f t="shared" ref="K32:K33" si="50">I32*J32</f>
         <v>0</v>
       </c>
-      <c r="H32" s="37">
-        <f t="shared" ref="H32" si="48">F32*G32</f>
+      <c r="L32" s="37">
+        <f t="shared" ref="L32:L33" si="51">C32+F32-I32</f>
+        <v>20</v>
+      </c>
+      <c r="M32" s="37">
+        <f t="shared" ref="M32:M33" si="52">J32</f>
+        <v>111000</v>
+      </c>
+      <c r="N32" s="94">
+        <f t="shared" ref="N32:N33" si="53">L32*M32</f>
+        <v>2220000</v>
+      </c>
+      <c r="O32" s="98">
+        <v>15</v>
+      </c>
+      <c r="P32" s="119">
+        <f t="shared" si="7"/>
+        <v>1665000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37">
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A33,'Nhập hàng'!$H$5:$H$27)</f>
+        <v>10</v>
+      </c>
+      <c r="G33" s="37">
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A33,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A33,'Nhập hàng'!$H$5:$H$27),0)</f>
+        <v>161640</v>
+      </c>
+      <c r="H33" s="37">
+        <f t="shared" si="43"/>
+        <v>1616400</v>
+      </c>
+      <c r="I33" s="37">
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A33,'Bán hàng'!$D$6:$D$140)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A32,'Bán hàng'!$D$6:$D$69)</f>
+      <c r="J33" s="37">
+        <f t="shared" si="49"/>
+        <v>161640</v>
+      </c>
+      <c r="K33" s="37">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="J32" s="37">
-        <f t="shared" ref="J32" si="49">IFERROR((C32*D32+F32*G32)/(C32+F32),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="37">
-        <f t="shared" ref="K32" si="50">I32*J32</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="37">
-        <f t="shared" ref="L32" si="51">C32+F32-I32</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="37">
-        <f t="shared" ref="M32" si="52">J32</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="94">
-        <f t="shared" ref="N32" si="53">L32*M32</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="98"/>
-    </row>
-    <row r="33" spans="1:15" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="L33" s="37">
+        <f t="shared" si="51"/>
+        <v>10</v>
+      </c>
+      <c r="M33" s="37">
+        <f t="shared" si="52"/>
+        <v>161640</v>
+      </c>
+      <c r="N33" s="94">
+        <f t="shared" si="53"/>
+        <v>1616400</v>
+      </c>
+      <c r="O33" s="98">
+        <v>8</v>
+      </c>
+      <c r="P33" s="119">
+        <f t="shared" si="7"/>
+        <v>1293120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="39" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="34" t="str">
-        <f>VLOOKUP(A33,'Danh mục hàng hóa'!$C$7:$D$34,2,0)</f>
+      <c r="B34" s="34" t="str">
+        <f>VLOOKUP(A34,'Danh mục hàng hóa'!$C$7:$D$35,2,0)</f>
         <v>Sạc Dell</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C34" s="37">
         <v>2</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D34" s="37">
         <v>148750</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E34" s="37">
         <f t="shared" si="0"/>
         <v>297500</v>
       </c>
-      <c r="F33" s="37">
-        <f>SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A33,'Nhập hàng'!$H$5:$H$22)</f>
+      <c r="F34" s="37">
+        <f>SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A34,'Nhập hàng'!$H$5:$H$27)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="37">
-        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A33,'Nhập hàng'!$L$5:$L$22)/SUMIF('Nhập hàng'!$F$5:$F$22,'TỔNG HỢP NHẬP XUẤT TỒN'!A33,'Nhập hàng'!$H$5:$H$22),0)</f>
+      <c r="G34" s="37">
+        <f>IFERROR(SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A34,'Nhập hàng'!$L$5:$L$27)/SUMIF('Nhập hàng'!$F$5:$F$27,'TỔNG HỢP NHẬP XUẤT TỒN'!A34,'Nhập hàng'!$H$5:$H$27),0)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H34" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I33" s="37">
-        <f>SUMIF('Bán hàng'!$B$6:$B$69,'TỔNG HỢP NHẬP XUẤT TỒN'!A33,'Bán hàng'!$D$6:$D$69)</f>
+      <c r="I34" s="37">
+        <f>SUMIF('Bán hàng'!$B$6:$B$140,'TỔNG HỢP NHẬP XUẤT TỒN'!A34,'Bán hàng'!$D$6:$D$140)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="37">
+      <c r="J34" s="37">
         <f t="shared" si="2"/>
         <v>148750</v>
       </c>
-      <c r="K33" s="37">
+      <c r="K34" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L33" s="37">
+      <c r="L34" s="37">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M33" s="37">
+      <c r="M34" s="37">
         <f t="shared" si="5"/>
         <v>148750</v>
       </c>
-      <c r="N33" s="94">
+      <c r="N34" s="94">
         <f t="shared" si="6"/>
         <v>297500</v>
       </c>
-      <c r="O33" s="98"/>
-    </row>
-    <row r="34" spans="1:15" s="39" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58" t="s">
+      <c r="O34" s="98"/>
+      <c r="P34" s="119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="39" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58">
-        <f>SUM(C6:C33)</f>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58">
+        <f>SUM(C6:C34)</f>
         <v>236</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59">
-        <f>SUM(E6:E33)</f>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59">
+        <f>SUM(E6:E34)</f>
         <v>32110883.927055873</v>
       </c>
-      <c r="F34" s="59">
-        <f>SUM(F6:F33)</f>
-        <v>304</v>
-      </c>
-      <c r="G34" s="59">
-        <f>SUM(G6:G33)</f>
-        <v>1415358.6813186812</v>
-      </c>
-      <c r="H34" s="59">
-        <f>SUM(H6:H33)</f>
-        <v>37187410</v>
-      </c>
-      <c r="I34" s="59">
-        <f>SUM(I6:I33)</f>
-        <v>92</v>
-      </c>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59">
-        <f>SUM(K6:K33)</f>
-        <v>12393339.013548683</v>
-      </c>
-      <c r="L34" s="59">
-        <f>SUM(L6:L33)</f>
-        <v>448</v>
-      </c>
-      <c r="M34" s="59"/>
-      <c r="N34" s="95">
-        <f>SUM(N6:N33)</f>
-        <v>56904954.913507186</v>
-      </c>
-      <c r="O34" s="98"/>
+      <c r="F35" s="59">
+        <f>SUM(F6:F34)</f>
+        <v>409</v>
+      </c>
+      <c r="G35" s="59">
+        <f>SUM(G6:G34)</f>
+        <v>2004751.3128976286</v>
+      </c>
+      <c r="H35" s="59">
+        <f>SUM(H6:H34)</f>
+        <v>50766610</v>
+      </c>
+      <c r="I35" s="59">
+        <f>SUM(I6:I34)</f>
+        <v>227</v>
+      </c>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59">
+        <f>SUM(K6:K34)</f>
+        <v>30221797.903535318</v>
+      </c>
+      <c r="L35" s="59">
+        <f>SUM(L6:L34)</f>
+        <v>418</v>
+      </c>
+      <c r="M35" s="59"/>
+      <c r="N35" s="95">
+        <f>SUM(N6:N34)</f>
+        <v>52655696.023520559</v>
+      </c>
+      <c r="O35" s="98"/>
+      <c r="P35" s="119">
+        <f>SUM(P6:P34)</f>
+        <v>30803127.121212866</v>
+      </c>
+      <c r="Q35" s="39">
+        <v>1820000</v>
+      </c>
+      <c r="R35" s="90">
+        <f>P35+Q35</f>
+        <v>32623127.121212866</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R36" s="141">
+        <f>R35*0.4</f>
+        <v>13049250.848485148</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14890,12 +16200,12 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="Q4" location="'Nhập hàng'!A1" display="'Nhập hàng'!A1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="Q5" location="'Bán hàng'!A1" display="'Bán hàng'!A1" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="Q6" location="'Các khoản chi phí'!A1" display="'Các khoản chi phí'!A1" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="Q7" location="'TỔNG HỢP NHẬP XUẤT TỒN'!A1" display="'TỔNG HỢP NHẬP XUẤT TỒN'!A1" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="Q8" location="'Lãi-Lỗ'!A1" display="'Lãi-Lỗ'!A1" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="Q9" location="'Danh mục hàng hóa'!A1" display="'Danh mục hàng hóa'!A1" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="R4" location="'Nhập hàng'!A1" display="'Nhập hàng'!A1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="R5" location="'Bán hàng'!A1" display="'Bán hàng'!A1" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="R6" location="'Các khoản chi phí'!A1" display="'Các khoản chi phí'!A1" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="R7" location="'TỔNG HỢP NHẬP XUẤT TỒN'!A1" display="'TỔNG HỢP NHẬP XUẤT TỒN'!A1" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="R8" location="'Lãi-Lỗ'!A1" display="'Lãi-Lỗ'!A1" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="R9" location="'Danh mục hàng hóa'!A1" display="'Danh mục hàng hóa'!A1" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14904,9 +16214,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
-            <xm:f>'Danh mục hàng hóa'!$C$7:$C$34</xm:f>
+            <xm:f>'Danh mục hàng hóa'!$C$7:$C$35</xm:f>
           </x14:formula1>
-          <xm:sqref>A6:A33</xm:sqref>
+          <xm:sqref>A6:A34</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14915,11 +16225,62 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5C8986-701D-46B2-B720-EEFC7C254257}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14937,13 +16298,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
     </row>
     <row r="3" spans="2:10" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="36" t="s">
@@ -15015,7 +16376,7 @@
         <v>525000</v>
       </c>
       <c r="F6" s="82" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H6" s="33" t="s">
         <v>89</v>
@@ -15025,7 +16386,7 @@
       </c>
       <c r="J6" s="41">
         <f>SUMIF($C$5:$C$24,H6,$E$5:$E$24)</f>
-        <v>1721000</v>
+        <v>1861000</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15043,7 +16404,7 @@
         <v>525000</v>
       </c>
       <c r="F7" s="82" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15061,7 +16422,7 @@
         <v>500000</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15079,7 +16440,7 @@
         <v>134000</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H9" s="48" t="s">
         <v>100</v>
@@ -15089,14 +16450,22 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33">
+      <c r="B10" s="108">
+        <v>45201</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="82"/>
+        <v>Chi phí bán hàng</v>
+      </c>
+      <c r="E10" s="41">
+        <v>140000</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>178</v>
+      </c>
       <c r="H10" s="39" t="s">
         <v>90</v>
       </c>
@@ -15282,7 +16651,7 @@
       <c r="D25" s="35"/>
       <c r="E25" s="67">
         <f>SUM(E5:E24)</f>
-        <v>1721000</v>
+        <v>1861000</v>
       </c>
       <c r="F25" s="83"/>
     </row>
@@ -15310,12 +16679,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15341,10 +16710,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" s="30" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G2" s="113" t="s">
+      <c r="G2" s="124" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="113"/>
+      <c r="H2" s="124"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
@@ -15395,8 +16764,8 @@
         <v>75</v>
       </c>
       <c r="H5" s="41">
-        <f>'Bán hàng'!N14</f>
-        <v>0</v>
+        <f>'Bán hàng'!I141</f>
+        <v>58156000</v>
       </c>
       <c r="J5" s="39" t="s">
         <v>90</v>
@@ -15420,15 +16789,15 @@
       </c>
       <c r="D6" s="77">
         <f>C6*H10</f>
-        <v>-688421.41945922398</v>
+        <v>7446984.5668550292</v>
       </c>
       <c r="E6" s="7"/>
       <c r="G6" s="33" t="s">
         <v>76</v>
       </c>
       <c r="H6" s="41">
-        <f>'Bán hàng'!O14</f>
-        <v>0</v>
+        <f>'Bán hàng'!F141</f>
+        <v>37678117.844263084</v>
       </c>
       <c r="J6" s="39" t="s">
         <v>96</v>
@@ -15452,7 +16821,7 @@
       </c>
       <c r="D7" s="77">
         <f>C7*H10</f>
-        <v>-1032578.5805407759</v>
+        <v>11169897.588881886</v>
       </c>
       <c r="E7" s="7"/>
       <c r="G7" s="33" t="s">
@@ -15460,7 +16829,7 @@
       </c>
       <c r="H7" s="41">
         <f>'Các khoản chi phí'!J6</f>
-        <v>1721000</v>
+        <v>1861000</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>91</v>
@@ -15481,7 +16850,7 @@
       <c r="C8" s="103"/>
       <c r="D8" s="78">
         <f>SUM(D6:D7)</f>
-        <v>-1721000</v>
+        <v>18616882.155736916</v>
       </c>
       <c r="E8" s="63"/>
       <c r="G8" s="35" t="s">
@@ -15489,7 +16858,7 @@
       </c>
       <c r="H8" s="41">
         <f>H5-H6-H7</f>
-        <v>-1721000</v>
+        <v>18616882.155736916</v>
       </c>
       <c r="J8" s="39" t="s">
         <v>92</v>
@@ -15525,7 +16894,7 @@
       </c>
       <c r="H10" s="65">
         <f>+H8-H9</f>
-        <v>-1721000</v>
+        <v>18616882.155736916</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>124</v>
